--- a/Percent of List Price Recieved.xlsx
+++ b/Percent of List Price Recieved.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>DateSelector</t>
   </si>
@@ -49,10 +49,16 @@
     <t>MSI</t>
   </si>
   <si>
+    <t>Land</t>
+  </si>
+  <si>
     <t>Condo/Townhouse</t>
   </si>
   <si>
     <t>Single Family Residence</t>
+  </si>
+  <si>
+    <t>Multi-Family</t>
   </si>
 </sst>
 </file>
@@ -404,7 +410,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
   <sheetPr/>
-  <dimension ref="A1:K193"/>
+  <dimension ref="A1:K385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
@@ -471,7 +477,7 @@
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2">
-        <v>0.95365488799999998</v>
+        <v>0.91599077399999995</v>
       </c>
       <c r="J2"/>
       <c r="K2"/>
@@ -490,17 +496,17 @@
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3">
-        <v>0.95987099300000001</v>
+        <v>0.95365488799999998</v>
       </c>
       <c r="J3"/>
       <c r="K3"/>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>43159</v>
+        <v>43131</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -509,17 +515,17 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4">
-        <v>0.95742287400000003</v>
+        <v>0.95987099300000001</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>43159</v>
+        <v>43131</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -528,17 +534,17 @@
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5">
-        <v>0.953825594</v>
+        <v>0.96367499999999995</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>43190</v>
+        <v>43159</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -547,17 +553,17 @@
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6">
-        <v>0.95715569300000003</v>
+        <v>0.95742287400000003</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>43190</v>
+        <v>43159</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -566,14 +572,14 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7">
-        <v>0.96357019899999996</v>
+        <v>0.95293616999999997</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>43220</v>
+        <v>43159</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -585,14 +591,14 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8">
-        <v>0.96307445199999997</v>
+        <v>0.953825594</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>43220</v>
+        <v>43159</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -604,17 +610,17 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9">
-        <v>0.95802169000000004</v>
+        <v>0.90831514000000002</v>
       </c>
       <c r="J9"/>
       <c r="K9"/>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>43251</v>
+        <v>43190</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -623,14 +629,14 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10">
-        <v>0.95737127499999997</v>
+        <v>0.96357019899999996</v>
       </c>
       <c r="J10"/>
       <c r="K10"/>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>43251</v>
+        <v>43190</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -642,14 +648,14 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11">
-        <v>0.96129833899999995</v>
+        <v>0.95715569300000003</v>
       </c>
       <c r="J11"/>
       <c r="K11"/>
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>43281</v>
+        <v>43190</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -661,17 +667,17 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12">
-        <v>0.95439285699999998</v>
+        <v>0.90501033900000005</v>
       </c>
       <c r="J12"/>
       <c r="K12"/>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>43281</v>
+        <v>43190</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -680,14 +686,14 @@
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13">
-        <v>0.96334945000000005</v>
+        <v>0.96611428499999996</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>43312</v>
+        <v>43220</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -699,17 +705,17 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14">
-        <v>0.95433773300000002</v>
+        <v>0.90022290999999999</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>43312</v>
+        <v>43220</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -718,17 +724,17 @@
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15">
-        <v>0.96351736899999996</v>
+        <v>0.96307445199999997</v>
       </c>
       <c r="J15"/>
       <c r="K15"/>
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>43343</v>
+        <v>43220</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -737,17 +743,17 @@
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16">
-        <v>0.96581108400000004</v>
+        <v>0.95113846099999999</v>
       </c>
       <c r="J16"/>
       <c r="K16"/>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>43343</v>
+        <v>43220</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -756,14 +762,14 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17">
-        <v>0.95524973800000001</v>
+        <v>0.95802169000000004</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>43373</v>
+        <v>43251</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -775,17 +781,17 @@
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18">
-        <v>0.95622082799999997</v>
+        <v>0.898734539</v>
       </c>
       <c r="J18"/>
       <c r="K18"/>
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>43373</v>
+        <v>43251</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -794,17 +800,17 @@
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19">
-        <v>0.96577598099999995</v>
+        <v>0.96129833899999995</v>
       </c>
       <c r="J19"/>
       <c r="K19"/>
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>43404</v>
+        <v>43251</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -813,17 +819,17 @@
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20">
-        <v>0.95308192400000002</v>
+        <v>0.95737127499999997</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>43404</v>
+        <v>43251</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -832,14 +838,14 @@
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21">
-        <v>0.96299655100000003</v>
+        <v>0.96118965499999998</v>
       </c>
       <c r="J21"/>
       <c r="K21"/>
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>43434</v>
+        <v>43281</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
@@ -851,17 +857,17 @@
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22">
-        <v>0.96313659600000001</v>
+        <v>0.95439285699999998</v>
       </c>
       <c r="J22"/>
       <c r="K22"/>
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <v>43434</v>
+        <v>43281</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -870,17 +876,17 @@
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23">
-        <v>0.95468649299999997</v>
+        <v>0.96334945000000005</v>
       </c>
       <c r="J23"/>
       <c r="K23"/>
     </row>
     <row r="24">
       <c r="A24" s="1">
-        <v>43465</v>
+        <v>43281</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -889,14 +895,14 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24">
-        <v>0.96326236799999998</v>
+        <v>0.94886764700000004</v>
       </c>
       <c r="J24"/>
       <c r="K24"/>
     </row>
     <row r="25">
       <c r="A25" s="1">
-        <v>43465</v>
+        <v>43281</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -908,17 +914,17 @@
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25">
-        <v>0.95431469400000002</v>
+        <v>0.89854310299999995</v>
       </c>
       <c r="J25"/>
       <c r="K25"/>
     </row>
     <row r="26">
       <c r="A26" s="1">
-        <v>43496</v>
+        <v>43312</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -927,14 +933,14 @@
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26">
-        <v>0.95230551600000002</v>
+        <v>0.96351736899999996</v>
       </c>
       <c r="J26"/>
       <c r="K26"/>
     </row>
     <row r="27">
       <c r="A27" s="1">
-        <v>43496</v>
+        <v>43312</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
@@ -946,17 +952,17 @@
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27">
-        <v>0.96243858000000004</v>
+        <v>0.95433773300000002</v>
       </c>
       <c r="J27"/>
       <c r="K27"/>
     </row>
     <row r="28">
       <c r="A28" s="1">
-        <v>43524</v>
+        <v>43312</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -965,14 +971,14 @@
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28">
-        <v>0.96067036400000005</v>
+        <v>0.950078125</v>
       </c>
       <c r="J28"/>
       <c r="K28"/>
     </row>
     <row r="29">
       <c r="A29" s="1">
-        <v>43524</v>
+        <v>43312</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -984,14 +990,14 @@
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29">
-        <v>0.95195858700000002</v>
+        <v>0.91099689900000003</v>
       </c>
       <c r="J29"/>
       <c r="K29"/>
     </row>
     <row r="30">
       <c r="A30" s="1">
-        <v>43555</v>
+        <v>43343</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -1003,17 +1009,17 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30">
-        <v>0.95445932200000005</v>
+        <v>0.89461669499999996</v>
       </c>
       <c r="J30"/>
       <c r="K30"/>
     </row>
     <row r="31">
       <c r="A31" s="1">
-        <v>43555</v>
+        <v>43343</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -1022,17 +1028,17 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31">
-        <v>0.96191517100000001</v>
+        <v>0.96581108400000004</v>
       </c>
       <c r="J31"/>
       <c r="K31"/>
     </row>
     <row r="32">
       <c r="A32" s="1">
-        <v>43585</v>
+        <v>43343</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -1041,14 +1047,14 @@
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32">
-        <v>0.95493320100000001</v>
+        <v>0.94929787200000004</v>
       </c>
       <c r="J32"/>
       <c r="K32"/>
     </row>
     <row r="33">
       <c r="A33" s="1">
-        <v>43585</v>
+        <v>43343</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
@@ -1060,17 +1066,17 @@
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33">
-        <v>0.96044504600000002</v>
+        <v>0.95524973800000001</v>
       </c>
       <c r="J33"/>
       <c r="K33"/>
     </row>
     <row r="34">
       <c r="A34" s="1">
-        <v>43616</v>
+        <v>43373</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -1079,17 +1085,17 @@
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34">
-        <v>0.95355332800000003</v>
+        <v>0.95622082799999997</v>
       </c>
       <c r="J34"/>
       <c r="K34"/>
     </row>
     <row r="35">
       <c r="A35" s="1">
-        <v>43616</v>
+        <v>43373</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -1098,17 +1104,17 @@
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35">
-        <v>0.96369064699999996</v>
+        <v>0.95030769199999998</v>
       </c>
       <c r="J35"/>
       <c r="K35"/>
     </row>
     <row r="36">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>43373</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -1117,17 +1123,17 @@
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36">
-        <v>0.95319770699999995</v>
+        <v>0.96577598099999995</v>
       </c>
       <c r="J36"/>
       <c r="K36"/>
     </row>
     <row r="37">
       <c r="A37" s="1">
-        <v>43646</v>
+        <v>43373</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -1136,14 +1142,14 @@
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37">
-        <v>0.96469018699999998</v>
+        <v>0.90265135600000002</v>
       </c>
       <c r="J37"/>
       <c r="K37"/>
     </row>
     <row r="38">
       <c r="A38" s="1">
-        <v>43677</v>
+        <v>43404</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -1155,17 +1161,17 @@
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38">
-        <v>0.95554662599999995</v>
+        <v>0.91293763400000005</v>
       </c>
       <c r="J38"/>
       <c r="K38"/>
     </row>
     <row r="39">
       <c r="A39" s="1">
-        <v>43677</v>
+        <v>43404</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
@@ -1174,17 +1180,17 @@
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39">
-        <v>0.96398647100000001</v>
+        <v>0.98078947299999997</v>
       </c>
       <c r="J39"/>
       <c r="K39"/>
     </row>
     <row r="40">
       <c r="A40" s="1">
-        <v>43708</v>
+        <v>43404</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C40"/>
       <c r="D40"/>
@@ -1193,17 +1199,17 @@
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40">
-        <v>0.95455361000000005</v>
+        <v>0.95308192400000002</v>
       </c>
       <c r="J40"/>
       <c r="K40"/>
     </row>
     <row r="41">
       <c r="A41" s="1">
-        <v>43708</v>
+        <v>43404</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C41"/>
       <c r="D41"/>
@@ -1212,17 +1218,17 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41">
-        <v>0.96630952299999995</v>
+        <v>0.96299655100000003</v>
       </c>
       <c r="J41"/>
       <c r="K41"/>
     </row>
     <row r="42">
       <c r="A42" s="1">
-        <v>43738</v>
+        <v>43434</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C42"/>
       <c r="D42"/>
@@ -1231,17 +1237,17 @@
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42">
-        <v>0.96361408000000004</v>
+        <v>0.95347540900000005</v>
       </c>
       <c r="J42"/>
       <c r="K42"/>
     </row>
     <row r="43">
       <c r="A43" s="1">
-        <v>43738</v>
+        <v>43434</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C43"/>
       <c r="D43"/>
@@ -1250,17 +1256,17 @@
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43">
-        <v>0.95606985200000005</v>
+        <v>0.96313659600000001</v>
       </c>
       <c r="J43"/>
       <c r="K43"/>
     </row>
     <row r="44">
       <c r="A44" s="1">
-        <v>43769</v>
+        <v>43434</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C44"/>
       <c r="D44"/>
@@ -1269,17 +1275,17 @@
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44">
-        <v>0.95560538100000003</v>
+        <v>0.95468649299999997</v>
       </c>
       <c r="J44"/>
       <c r="K44"/>
     </row>
     <row r="45">
       <c r="A45" s="1">
-        <v>43769</v>
+        <v>43434</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C45"/>
       <c r="D45"/>
@@ -1288,14 +1294,14 @@
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45">
-        <v>0.96483047600000005</v>
+        <v>0.86915094299999995</v>
       </c>
       <c r="J45"/>
       <c r="K45"/>
     </row>
     <row r="46">
       <c r="A46" s="1">
-        <v>43799</v>
+        <v>43465</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
@@ -1307,17 +1313,17 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46">
-        <v>0.95892967799999995</v>
+        <v>0.89703686599999999</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
     </row>
     <row r="47">
       <c r="A47" s="1">
-        <v>43799</v>
+        <v>43465</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C47"/>
       <c r="D47"/>
@@ -1326,14 +1332,14 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47">
-        <v>0.96503843499999997</v>
+        <v>0.95615555500000005</v>
       </c>
       <c r="J47"/>
       <c r="K47"/>
     </row>
     <row r="48">
       <c r="A48" s="1">
-        <v>43830</v>
+        <v>43465</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
@@ -1345,17 +1351,17 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48">
-        <v>0.96486129300000001</v>
+        <v>0.95431469400000002</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
     </row>
     <row r="49">
       <c r="A49" s="1">
-        <v>43830</v>
+        <v>43465</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
@@ -1364,17 +1370,17 @@
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49">
-        <v>0.956250445</v>
+        <v>0.96326236799999998</v>
       </c>
       <c r="J49"/>
       <c r="K49"/>
     </row>
     <row r="50">
       <c r="A50" s="1">
-        <v>43861</v>
+        <v>43496</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C50"/>
       <c r="D50"/>
@@ -1383,17 +1389,17 @@
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50">
-        <v>0.95417721499999997</v>
+        <v>0.95230551600000002</v>
       </c>
       <c r="J50"/>
       <c r="K50"/>
     </row>
     <row r="51">
       <c r="A51" s="1">
-        <v>43861</v>
+        <v>43496</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
@@ -1402,17 +1408,17 @@
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51">
-        <v>0.96183394499999997</v>
+        <v>0.96256521699999997</v>
       </c>
       <c r="J51"/>
       <c r="K51"/>
     </row>
     <row r="52">
       <c r="A52" s="1">
-        <v>43890</v>
+        <v>43496</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C52"/>
       <c r="D52"/>
@@ -1421,17 +1427,17 @@
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52">
-        <v>0.95630256800000002</v>
+        <v>0.96243858000000004</v>
       </c>
       <c r="J52"/>
       <c r="K52"/>
     </row>
     <row r="53">
       <c r="A53" s="1">
-        <v>43890</v>
+        <v>43496</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C53"/>
       <c r="D53"/>
@@ -1440,17 +1446,17 @@
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53">
-        <v>0.96277148400000001</v>
+        <v>0.89607658599999995</v>
       </c>
       <c r="J53"/>
       <c r="K53"/>
     </row>
     <row r="54">
       <c r="A54" s="1">
-        <v>43921</v>
+        <v>43524</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C54"/>
       <c r="D54"/>
@@ -1459,17 +1465,17 @@
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54">
-        <v>0.964618317</v>
+        <v>0.88473764200000005</v>
       </c>
       <c r="J54"/>
       <c r="K54"/>
     </row>
     <row r="55">
       <c r="A55" s="1">
-        <v>43921</v>
+        <v>43524</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C55"/>
       <c r="D55"/>
@@ -1478,17 +1484,17 @@
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55">
-        <v>0.95881281399999996</v>
+        <v>0.95528124999999997</v>
       </c>
       <c r="J55"/>
       <c r="K55"/>
     </row>
     <row r="56">
       <c r="A56" s="1">
-        <v>43951</v>
+        <v>43524</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C56"/>
       <c r="D56"/>
@@ -1497,17 +1503,17 @@
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56">
-        <v>0.95764164100000004</v>
+        <v>0.95195858700000002</v>
       </c>
       <c r="J56"/>
       <c r="K56"/>
     </row>
     <row r="57">
       <c r="A57" s="1">
-        <v>43951</v>
+        <v>43524</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C57"/>
       <c r="D57"/>
@@ -1516,14 +1522,14 @@
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57">
-        <v>0.96687009000000002</v>
+        <v>0.96067036400000005</v>
       </c>
       <c r="J57"/>
       <c r="K57"/>
     </row>
     <row r="58">
       <c r="A58" s="1">
-        <v>43982</v>
+        <v>43555</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
@@ -1535,17 +1541,17 @@
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58">
-        <v>0.94907564200000005</v>
+        <v>0.89429969399999998</v>
       </c>
       <c r="J58"/>
       <c r="K58"/>
     </row>
     <row r="59">
       <c r="A59" s="1">
-        <v>43982</v>
+        <v>43555</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C59"/>
       <c r="D59"/>
@@ -1554,14 +1560,14 @@
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59">
-        <v>0.96374526100000002</v>
+        <v>0.96191517100000001</v>
       </c>
       <c r="J59"/>
       <c r="K59"/>
     </row>
     <row r="60">
       <c r="A60" s="1">
-        <v>44012</v>
+        <v>43555</v>
       </c>
       <c r="B60" t="s">
         <v>12</v>
@@ -1573,17 +1579,17 @@
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60">
-        <v>0.96341817200000002</v>
+        <v>0.95445932200000005</v>
       </c>
       <c r="J60"/>
       <c r="K60"/>
     </row>
     <row r="61">
       <c r="A61" s="1">
-        <v>44012</v>
+        <v>43555</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C61"/>
       <c r="D61"/>
@@ -1592,17 +1598,17 @@
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61">
-        <v>0.95219807199999995</v>
+        <v>0.957381818</v>
       </c>
       <c r="J61"/>
       <c r="K61"/>
     </row>
     <row r="62">
       <c r="A62" s="1">
-        <v>44043</v>
+        <v>43585</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C62"/>
       <c r="D62"/>
@@ -1611,14 +1617,14 @@
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62">
-        <v>0.95735223300000005</v>
+        <v>0.96044504600000002</v>
       </c>
       <c r="J62"/>
       <c r="K62"/>
     </row>
     <row r="63">
       <c r="A63" s="1">
-        <v>44043</v>
+        <v>43585</v>
       </c>
       <c r="B63" t="s">
         <v>12</v>
@@ -1630,17 +1636,17 @@
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63">
-        <v>0.96813504100000003</v>
+        <v>0.95493320100000001</v>
       </c>
       <c r="J63"/>
       <c r="K63"/>
     </row>
     <row r="64">
       <c r="A64" s="1">
-        <v>44074</v>
+        <v>43585</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C64"/>
       <c r="D64"/>
@@ -1649,17 +1655,17 @@
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64">
-        <v>0.96057926800000004</v>
+        <v>0.947210526</v>
       </c>
       <c r="J64"/>
       <c r="K64"/>
     </row>
     <row r="65">
       <c r="A65" s="1">
-        <v>44074</v>
+        <v>43585</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C65"/>
       <c r="D65"/>
@@ -1668,17 +1674,17 @@
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65">
-        <v>0.96944143699999996</v>
+        <v>0.90028012999999996</v>
       </c>
       <c r="J65"/>
       <c r="K65"/>
     </row>
     <row r="66">
       <c r="A66" s="1">
-        <v>44104</v>
+        <v>43616</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C66"/>
       <c r="D66"/>
@@ -1687,17 +1693,17 @@
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66">
-        <v>0.96038902699999995</v>
+        <v>0.96369064699999996</v>
       </c>
       <c r="J66"/>
       <c r="K66"/>
     </row>
     <row r="67">
       <c r="A67" s="1">
-        <v>44104</v>
+        <v>43616</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C67"/>
       <c r="D67"/>
@@ -1706,17 +1712,17 @@
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67">
-        <v>0.971102786</v>
+        <v>0.88327137499999997</v>
       </c>
       <c r="J67"/>
       <c r="K67"/>
     </row>
     <row r="68">
       <c r="A68" s="1">
-        <v>44135</v>
+        <v>43616</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C68"/>
       <c r="D68"/>
@@ -1725,14 +1731,14 @@
       <c r="G68"/>
       <c r="H68"/>
       <c r="I68">
-        <v>0.96226355500000005</v>
+        <v>0.94961538400000001</v>
       </c>
       <c r="J68"/>
       <c r="K68"/>
     </row>
     <row r="69">
       <c r="A69" s="1">
-        <v>44135</v>
+        <v>43616</v>
       </c>
       <c r="B69" t="s">
         <v>12</v>
@@ -1744,17 +1750,17 @@
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69">
-        <v>0.97225853200000001</v>
+        <v>0.95355332800000003</v>
       </c>
       <c r="J69"/>
       <c r="K69"/>
     </row>
     <row r="70">
       <c r="A70" s="1">
-        <v>44165</v>
+        <v>43646</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C70"/>
       <c r="D70"/>
@@ -1763,14 +1769,14 @@
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70">
-        <v>0.97339068399999995</v>
+        <v>0.96469018699999998</v>
       </c>
       <c r="J70"/>
       <c r="K70"/>
     </row>
     <row r="71">
       <c r="A71" s="1">
-        <v>44165</v>
+        <v>43646</v>
       </c>
       <c r="B71" t="s">
         <v>11</v>
@@ -1782,17 +1788,17 @@
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71">
-        <v>0.96277727599999996</v>
+        <v>0.88507142800000005</v>
       </c>
       <c r="J71"/>
       <c r="K71"/>
     </row>
     <row r="72">
       <c r="A72" s="1">
-        <v>44196</v>
+        <v>43646</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C72"/>
       <c r="D72"/>
@@ -1801,17 +1807,17 @@
       <c r="G72"/>
       <c r="H72"/>
       <c r="I72">
-        <v>0.97255102000000004</v>
+        <v>0.96360317399999995</v>
       </c>
       <c r="J72"/>
       <c r="K72"/>
     </row>
     <row r="73">
       <c r="A73" s="1">
-        <v>44196</v>
+        <v>43646</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C73"/>
       <c r="D73"/>
@@ -1820,14 +1826,14 @@
       <c r="G73"/>
       <c r="H73"/>
       <c r="I73">
-        <v>0.96430688099999995</v>
+        <v>0.95319770699999995</v>
       </c>
       <c r="J73"/>
       <c r="K73"/>
     </row>
     <row r="74">
       <c r="A74" s="1">
-        <v>44227</v>
+        <v>43677</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
@@ -1839,17 +1845,17 @@
       <c r="G74"/>
       <c r="H74"/>
       <c r="I74">
-        <v>0.96400153799999999</v>
+        <v>0.90148156099999999</v>
       </c>
       <c r="J74"/>
       <c r="K74"/>
     </row>
     <row r="75">
       <c r="A75" s="1">
-        <v>44227</v>
+        <v>43677</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C75"/>
       <c r="D75"/>
@@ -1858,17 +1864,17 @@
       <c r="G75"/>
       <c r="H75"/>
       <c r="I75">
-        <v>0.97141935400000001</v>
+        <v>0.96398647100000001</v>
       </c>
       <c r="J75"/>
       <c r="K75"/>
     </row>
     <row r="76">
       <c r="A76" s="1">
-        <v>44255</v>
+        <v>43677</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C76"/>
       <c r="D76"/>
@@ -1877,17 +1883,17 @@
       <c r="G76"/>
       <c r="H76"/>
       <c r="I76">
-        <v>0.97675987900000005</v>
+        <v>0.95916176399999997</v>
       </c>
       <c r="J76"/>
       <c r="K76"/>
     </row>
     <row r="77">
       <c r="A77" s="1">
-        <v>44255</v>
+        <v>43677</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C77"/>
       <c r="D77"/>
@@ -1896,17 +1902,17 @@
       <c r="G77"/>
       <c r="H77"/>
       <c r="I77">
-        <v>0.96782093300000005</v>
+        <v>0.95554662599999995</v>
       </c>
       <c r="J77"/>
       <c r="K77"/>
     </row>
     <row r="78">
       <c r="A78" s="1">
-        <v>44286</v>
+        <v>43708</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C78"/>
       <c r="D78"/>
@@ -1915,14 +1921,14 @@
       <c r="G78"/>
       <c r="H78"/>
       <c r="I78">
-        <v>0.98263298600000004</v>
+        <v>0.96464150900000001</v>
       </c>
       <c r="J78"/>
       <c r="K78"/>
     </row>
     <row r="79">
       <c r="A79" s="1">
-        <v>44286</v>
+        <v>43708</v>
       </c>
       <c r="B79" t="s">
         <v>11</v>
@@ -1934,14 +1940,14 @@
       <c r="G79"/>
       <c r="H79"/>
       <c r="I79">
-        <v>0.97500982899999999</v>
+        <v>0.895368316</v>
       </c>
       <c r="J79"/>
       <c r="K79"/>
     </row>
     <row r="80">
       <c r="A80" s="1">
-        <v>44316</v>
+        <v>43708</v>
       </c>
       <c r="B80" t="s">
         <v>12</v>
@@ -1953,17 +1959,17 @@
       <c r="G80"/>
       <c r="H80"/>
       <c r="I80">
-        <v>0.98875170199999995</v>
+        <v>0.95455361000000005</v>
       </c>
       <c r="J80"/>
       <c r="K80"/>
     </row>
     <row r="81">
       <c r="A81" s="1">
-        <v>44316</v>
+        <v>43708</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C81"/>
       <c r="D81"/>
@@ -1972,14 +1978,14 @@
       <c r="G81"/>
       <c r="H81"/>
       <c r="I81">
-        <v>0.98172492499999997</v>
+        <v>0.96630952299999995</v>
       </c>
       <c r="J81"/>
       <c r="K81"/>
     </row>
     <row r="82">
       <c r="A82" s="1">
-        <v>44347</v>
+        <v>43738</v>
       </c>
       <c r="B82" t="s">
         <v>11</v>
@@ -1991,14 +1997,14 @@
       <c r="G82"/>
       <c r="H82"/>
       <c r="I82">
-        <v>0.98871489300000004</v>
+        <v>0.90100212700000004</v>
       </c>
       <c r="J82"/>
       <c r="K82"/>
     </row>
     <row r="83">
       <c r="A83" s="1">
-        <v>44347</v>
+        <v>43738</v>
       </c>
       <c r="B83" t="s">
         <v>12</v>
@@ -2010,17 +2016,17 @@
       <c r="G83"/>
       <c r="H83"/>
       <c r="I83">
-        <v>0.99444512600000001</v>
+        <v>0.95606985200000005</v>
       </c>
       <c r="J83"/>
       <c r="K83"/>
     </row>
     <row r="84">
       <c r="A84" s="1">
-        <v>44377</v>
+        <v>43738</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C84"/>
       <c r="D84"/>
@@ -2029,17 +2035,17 @@
       <c r="G84"/>
       <c r="H84"/>
       <c r="I84">
-        <v>0.99323991</v>
+        <v>0.96361408000000004</v>
       </c>
       <c r="J84"/>
       <c r="K84"/>
     </row>
     <row r="85">
       <c r="A85" s="1">
-        <v>44377</v>
+        <v>43738</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C85"/>
       <c r="D85"/>
@@ -2048,17 +2054,17 @@
       <c r="G85"/>
       <c r="H85"/>
       <c r="I85">
-        <v>0.99681448299999997</v>
+        <v>0.957166666</v>
       </c>
       <c r="J85"/>
       <c r="K85"/>
     </row>
     <row r="86">
       <c r="A86" s="1">
-        <v>44408</v>
+        <v>43769</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C86"/>
       <c r="D86"/>
@@ -2067,14 +2073,14 @@
       <c r="G86"/>
       <c r="H86"/>
       <c r="I86">
-        <v>0.99406334200000002</v>
+        <v>0.96556363599999995</v>
       </c>
       <c r="J86"/>
       <c r="K86"/>
     </row>
     <row r="87">
       <c r="A87" s="1">
-        <v>44408</v>
+        <v>43769</v>
       </c>
       <c r="B87" t="s">
         <v>11</v>
@@ -2086,14 +2092,14 @@
       <c r="G87"/>
       <c r="H87"/>
       <c r="I87">
-        <v>0.99466215099999999</v>
+        <v>0.89149999999999996</v>
       </c>
       <c r="J87"/>
       <c r="K87"/>
     </row>
     <row r="88">
       <c r="A88" s="1">
-        <v>44439</v>
+        <v>43769</v>
       </c>
       <c r="B88" t="s">
         <v>12</v>
@@ -2105,17 +2111,17 @@
       <c r="G88"/>
       <c r="H88"/>
       <c r="I88">
-        <v>0.99268951800000005</v>
+        <v>0.95560538100000003</v>
       </c>
       <c r="J88"/>
       <c r="K88"/>
     </row>
     <row r="89">
       <c r="A89" s="1">
-        <v>44439</v>
+        <v>43769</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C89"/>
       <c r="D89"/>
@@ -2124,14 +2130,14 @@
       <c r="G89"/>
       <c r="H89"/>
       <c r="I89">
-        <v>0.99792353899999997</v>
+        <v>0.96483047600000005</v>
       </c>
       <c r="J89"/>
       <c r="K89"/>
     </row>
     <row r="90">
       <c r="A90" s="1">
-        <v>44469</v>
+        <v>43799</v>
       </c>
       <c r="B90" t="s">
         <v>11</v>
@@ -2143,14 +2149,14 @@
       <c r="G90"/>
       <c r="H90"/>
       <c r="I90">
-        <v>0.99863808600000004</v>
+        <v>0.88200227200000003</v>
       </c>
       <c r="J90"/>
       <c r="K90"/>
     </row>
     <row r="91">
       <c r="A91" s="1">
-        <v>44469</v>
+        <v>43799</v>
       </c>
       <c r="B91" t="s">
         <v>12</v>
@@ -2162,17 +2168,17 @@
       <c r="G91"/>
       <c r="H91"/>
       <c r="I91">
-        <v>0.99234412299999997</v>
+        <v>0.95892967799999995</v>
       </c>
       <c r="J91"/>
       <c r="K91"/>
     </row>
     <row r="92">
       <c r="A92" s="1">
-        <v>44500</v>
+        <v>43799</v>
       </c>
       <c r="B92" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C92"/>
       <c r="D92"/>
@@ -2181,17 +2187,17 @@
       <c r="G92"/>
       <c r="H92"/>
       <c r="I92">
-        <v>0.99754848100000004</v>
+        <v>0.96628000000000003</v>
       </c>
       <c r="J92"/>
       <c r="K92"/>
     </row>
     <row r="93">
       <c r="A93" s="1">
-        <v>44500</v>
+        <v>43799</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C93"/>
       <c r="D93"/>
@@ -2200,17 +2206,17 @@
       <c r="G93"/>
       <c r="H93"/>
       <c r="I93">
-        <v>0.99042023700000004</v>
+        <v>0.96503843499999997</v>
       </c>
       <c r="J93"/>
       <c r="K93"/>
     </row>
     <row r="94">
       <c r="A94" s="1">
-        <v>44530</v>
+        <v>43830</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C94"/>
       <c r="D94"/>
@@ -2219,14 +2225,14 @@
       <c r="G94"/>
       <c r="H94"/>
       <c r="I94">
-        <v>1.0024575950000001</v>
+        <v>0.96486129300000001</v>
       </c>
       <c r="J94"/>
       <c r="K94"/>
     </row>
     <row r="95">
       <c r="A95" s="1">
-        <v>44530</v>
+        <v>43830</v>
       </c>
       <c r="B95" t="s">
         <v>12</v>
@@ -2238,17 +2244,17 @@
       <c r="G95"/>
       <c r="H95"/>
       <c r="I95">
-        <v>0.99205819799999995</v>
+        <v>0.956250445</v>
       </c>
       <c r="J95"/>
       <c r="K95"/>
     </row>
     <row r="96">
       <c r="A96" s="1">
-        <v>44561</v>
+        <v>43830</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C96"/>
       <c r="D96"/>
@@ -2257,17 +2263,17 @@
       <c r="G96"/>
       <c r="H96"/>
       <c r="I96">
-        <v>1.001252713</v>
+        <v>0.96745901599999995</v>
       </c>
       <c r="J96"/>
       <c r="K96"/>
     </row>
     <row r="97">
       <c r="A97" s="1">
-        <v>44561</v>
+        <v>43830</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C97"/>
       <c r="D97"/>
@@ -2276,17 +2282,17 @@
       <c r="G97"/>
       <c r="H97"/>
       <c r="I97">
-        <v>0.98889928999999999</v>
+        <v>0.89478807900000001</v>
       </c>
       <c r="J97"/>
       <c r="K97"/>
     </row>
     <row r="98">
       <c r="A98" s="1">
-        <v>44592</v>
+        <v>43861</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C98"/>
       <c r="D98"/>
@@ -2295,17 +2301,17 @@
       <c r="G98"/>
       <c r="H98"/>
       <c r="I98">
-        <v>0.99004576300000002</v>
+        <v>0.90511721000000001</v>
       </c>
       <c r="J98"/>
       <c r="K98"/>
     </row>
     <row r="99">
       <c r="A99" s="1">
-        <v>44592</v>
+        <v>43861</v>
       </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C99"/>
       <c r="D99"/>
@@ -2314,17 +2320,17 @@
       <c r="G99"/>
       <c r="H99"/>
       <c r="I99">
-        <v>1.005884974</v>
+        <v>0.96183394499999997</v>
       </c>
       <c r="J99"/>
       <c r="K99"/>
     </row>
     <row r="100">
       <c r="A100" s="1">
-        <v>44620</v>
+        <v>43861</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C100"/>
       <c r="D100"/>
@@ -2333,14 +2339,14 @@
       <c r="G100"/>
       <c r="H100"/>
       <c r="I100">
-        <v>1.0124920799999999</v>
+        <v>0.96348214200000004</v>
       </c>
       <c r="J100"/>
       <c r="K100"/>
     </row>
     <row r="101">
       <c r="A101" s="1">
-        <v>44620</v>
+        <v>43861</v>
       </c>
       <c r="B101" t="s">
         <v>12</v>
@@ -2352,17 +2358,17 @@
       <c r="G101"/>
       <c r="H101"/>
       <c r="I101">
-        <v>0.99567658599999997</v>
+        <v>0.95417721499999997</v>
       </c>
       <c r="J101"/>
       <c r="K101"/>
     </row>
     <row r="102">
       <c r="A102" s="1">
-        <v>44651</v>
+        <v>43890</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C102"/>
       <c r="D102"/>
@@ -2371,17 +2377,17 @@
       <c r="G102"/>
       <c r="H102"/>
       <c r="I102">
-        <v>1.0204989419999999</v>
+        <v>0.95630256800000002</v>
       </c>
       <c r="J102"/>
       <c r="K102"/>
     </row>
     <row r="103">
       <c r="A103" s="1">
-        <v>44651</v>
+        <v>43890</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C103"/>
       <c r="D103"/>
@@ -2390,14 +2396,14 @@
       <c r="G103"/>
       <c r="H103"/>
       <c r="I103">
-        <v>1.0019591750000001</v>
+        <v>0.97606666600000003</v>
       </c>
       <c r="J103"/>
       <c r="K103"/>
     </row>
     <row r="104">
       <c r="A104" s="1">
-        <v>44681</v>
+        <v>43890</v>
       </c>
       <c r="B104" t="s">
         <v>11</v>
@@ -2409,17 +2415,17 @@
       <c r="G104"/>
       <c r="H104"/>
       <c r="I104">
-        <v>1.0162994750000001</v>
+        <v>0.89174451399999999</v>
       </c>
       <c r="J104"/>
       <c r="K104"/>
     </row>
     <row r="105">
       <c r="A105" s="1">
-        <v>44681</v>
+        <v>43890</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C105"/>
       <c r="D105"/>
@@ -2428,17 +2434,17 @@
       <c r="G105"/>
       <c r="H105"/>
       <c r="I105">
-        <v>1.0023537410000001</v>
+        <v>0.96277148400000001</v>
       </c>
       <c r="J105"/>
       <c r="K105"/>
     </row>
     <row r="106">
       <c r="A106" s="1">
-        <v>44712</v>
+        <v>43921</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C106"/>
       <c r="D106"/>
@@ -2447,17 +2453,17 @@
       <c r="G106"/>
       <c r="H106"/>
       <c r="I106">
-        <v>1.0073205380000001</v>
+        <v>0.95881281399999996</v>
       </c>
       <c r="J106"/>
       <c r="K106"/>
     </row>
     <row r="107">
       <c r="A107" s="1">
-        <v>44712</v>
+        <v>43921</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C107"/>
       <c r="D107"/>
@@ -2466,17 +2472,17 @@
       <c r="G107"/>
       <c r="H107"/>
       <c r="I107">
-        <v>0.99835944799999998</v>
+        <v>0.97339534800000005</v>
       </c>
       <c r="J107"/>
       <c r="K107"/>
     </row>
     <row r="108">
       <c r="A108" s="1">
-        <v>44742</v>
+        <v>43921</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C108"/>
       <c r="D108"/>
@@ -2485,14 +2491,14 @@
       <c r="G108"/>
       <c r="H108"/>
       <c r="I108">
-        <v>0.99349516900000001</v>
+        <v>0.964618317</v>
       </c>
       <c r="J108"/>
       <c r="K108"/>
     </row>
     <row r="109">
       <c r="A109" s="1">
-        <v>44742</v>
+        <v>43921</v>
       </c>
       <c r="B109" t="s">
         <v>11</v>
@@ -2504,17 +2510,17 @@
       <c r="G109"/>
       <c r="H109"/>
       <c r="I109">
-        <v>0.99424315299999999</v>
+        <v>0.90704279600000004</v>
       </c>
       <c r="J109"/>
       <c r="K109"/>
     </row>
     <row r="110">
       <c r="A110" s="1">
-        <v>44773</v>
+        <v>43951</v>
       </c>
       <c r="B110" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C110"/>
       <c r="D110"/>
@@ -2523,14 +2529,14 @@
       <c r="G110"/>
       <c r="H110"/>
       <c r="I110">
-        <v>0.98418557900000003</v>
+        <v>0.95020512800000001</v>
       </c>
       <c r="J110"/>
       <c r="K110"/>
     </row>
     <row r="111">
       <c r="A111" s="1">
-        <v>44773</v>
+        <v>43951</v>
       </c>
       <c r="B111" t="s">
         <v>12</v>
@@ -2542,17 +2548,17 @@
       <c r="G111"/>
       <c r="H111"/>
       <c r="I111">
-        <v>0.98393694799999998</v>
+        <v>0.95764164100000004</v>
       </c>
       <c r="J111"/>
       <c r="K111"/>
     </row>
     <row r="112">
       <c r="A112" s="1">
-        <v>44804</v>
+        <v>43951</v>
       </c>
       <c r="B112" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C112"/>
       <c r="D112"/>
@@ -2561,17 +2567,17 @@
       <c r="G112"/>
       <c r="H112"/>
       <c r="I112">
-        <v>0.975521058</v>
+        <v>0.96687009000000002</v>
       </c>
       <c r="J112"/>
       <c r="K112"/>
     </row>
     <row r="113">
       <c r="A113" s="1">
-        <v>44804</v>
+        <v>43951</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C113"/>
       <c r="D113"/>
@@ -2580,17 +2586,17 @@
       <c r="G113"/>
       <c r="H113"/>
       <c r="I113">
-        <v>0.97416544100000002</v>
+        <v>0.90373863600000004</v>
       </c>
       <c r="J113"/>
       <c r="K113"/>
     </row>
     <row r="114">
       <c r="A114" s="1">
-        <v>44834</v>
+        <v>43982</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C114"/>
       <c r="D114"/>
@@ -2599,17 +2605,17 @@
       <c r="G114"/>
       <c r="H114"/>
       <c r="I114">
-        <v>0.97081061800000001</v>
+        <v>0.881975285</v>
       </c>
       <c r="J114"/>
       <c r="K114"/>
     </row>
     <row r="115">
       <c r="A115" s="1">
-        <v>44834</v>
+        <v>43982</v>
       </c>
       <c r="B115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C115"/>
       <c r="D115"/>
@@ -2618,17 +2624,17 @@
       <c r="G115"/>
       <c r="H115"/>
       <c r="I115">
-        <v>0.97424290199999997</v>
+        <v>0.94907564200000005</v>
       </c>
       <c r="J115"/>
       <c r="K115"/>
     </row>
     <row r="116">
       <c r="A116" s="1">
-        <v>44865</v>
+        <v>43982</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C116"/>
       <c r="D116"/>
@@ -2637,17 +2643,17 @@
       <c r="G116"/>
       <c r="H116"/>
       <c r="I116">
-        <v>0.97037606799999998</v>
+        <v>0.95059259200000001</v>
       </c>
       <c r="J116"/>
       <c r="K116"/>
     </row>
     <row r="117">
       <c r="A117" s="1">
-        <v>44865</v>
+        <v>43982</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C117"/>
       <c r="D117"/>
@@ -2656,17 +2662,17 @@
       <c r="G117"/>
       <c r="H117"/>
       <c r="I117">
-        <v>0.97016622399999997</v>
+        <v>0.96374526100000002</v>
       </c>
       <c r="J117"/>
       <c r="K117"/>
     </row>
     <row r="118">
       <c r="A118" s="1">
-        <v>44895</v>
+        <v>44012</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C118"/>
       <c r="D118"/>
@@ -2675,17 +2681,17 @@
       <c r="G118"/>
       <c r="H118"/>
       <c r="I118">
-        <v>0.96319703199999995</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="J118"/>
       <c r="K118"/>
     </row>
     <row r="119">
       <c r="A119" s="1">
-        <v>44895</v>
+        <v>44012</v>
       </c>
       <c r="B119" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C119"/>
       <c r="D119"/>
@@ -2694,17 +2700,17 @@
       <c r="G119"/>
       <c r="H119"/>
       <c r="I119">
-        <v>0.97425297600000005</v>
+        <v>0.96341817200000002</v>
       </c>
       <c r="J119"/>
       <c r="K119"/>
     </row>
     <row r="120">
       <c r="A120" s="1">
-        <v>44926</v>
+        <v>44012</v>
       </c>
       <c r="B120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C120"/>
       <c r="D120"/>
@@ -2713,17 +2719,17 @@
       <c r="G120"/>
       <c r="H120"/>
       <c r="I120">
-        <v>0.97058782799999999</v>
+        <v>0.95219807199999995</v>
       </c>
       <c r="J120"/>
       <c r="K120"/>
     </row>
     <row r="121">
       <c r="A121" s="1">
-        <v>44926</v>
+        <v>44012</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C121"/>
       <c r="D121"/>
@@ -2732,17 +2738,17 @@
       <c r="G121"/>
       <c r="H121"/>
       <c r="I121">
-        <v>0.96269139199999998</v>
+        <v>0.90276893400000002</v>
       </c>
       <c r="J121"/>
       <c r="K121"/>
     </row>
     <row r="122">
       <c r="A122" s="1">
-        <v>44957</v>
+        <v>44043</v>
       </c>
       <c r="B122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C122"/>
       <c r="D122"/>
@@ -2751,17 +2757,17 @@
       <c r="G122"/>
       <c r="H122"/>
       <c r="I122">
-        <v>0.96106456600000001</v>
+        <v>0.95735223300000005</v>
       </c>
       <c r="J122"/>
       <c r="K122"/>
     </row>
     <row r="123">
       <c r="A123" s="1">
-        <v>44957</v>
+        <v>44043</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C123"/>
       <c r="D123"/>
@@ -2770,17 +2776,17 @@
       <c r="G123"/>
       <c r="H123"/>
       <c r="I123">
-        <v>0.96049269400000004</v>
+        <v>0.96813504100000003</v>
       </c>
       <c r="J123"/>
       <c r="K123"/>
     </row>
     <row r="124">
       <c r="A124" s="1">
-        <v>44985</v>
+        <v>44043</v>
       </c>
       <c r="B124" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C124"/>
       <c r="D124"/>
@@ -2789,17 +2795,17 @@
       <c r="G124"/>
       <c r="H124"/>
       <c r="I124">
-        <v>0.96751139200000003</v>
+        <v>0.96260344799999997</v>
       </c>
       <c r="J124"/>
       <c r="K124"/>
     </row>
     <row r="125">
       <c r="A125" s="1">
-        <v>44985</v>
+        <v>44043</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C125"/>
       <c r="D125"/>
@@ -2808,14 +2814,14 @@
       <c r="G125"/>
       <c r="H125"/>
       <c r="I125">
-        <v>0.96013367599999999</v>
+        <v>0.90743469300000001</v>
       </c>
       <c r="J125"/>
       <c r="K125"/>
     </row>
     <row r="126">
       <c r="A126" s="1">
-        <v>45016</v>
+        <v>44074</v>
       </c>
       <c r="B126" t="s">
         <v>12</v>
@@ -2827,14 +2833,14 @@
       <c r="G126"/>
       <c r="H126"/>
       <c r="I126">
-        <v>0.96410321899999996</v>
+        <v>0.96057926800000004</v>
       </c>
       <c r="J126"/>
       <c r="K126"/>
     </row>
     <row r="127">
       <c r="A127" s="1">
-        <v>45016</v>
+        <v>44074</v>
       </c>
       <c r="B127" t="s">
         <v>11</v>
@@ -2846,17 +2852,17 @@
       <c r="G127"/>
       <c r="H127"/>
       <c r="I127">
-        <v>0.96868990899999996</v>
+        <v>0.90995458500000004</v>
       </c>
       <c r="J127"/>
       <c r="K127"/>
     </row>
     <row r="128">
       <c r="A128" s="1">
-        <v>45046</v>
+        <v>44074</v>
       </c>
       <c r="B128" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C128"/>
       <c r="D128"/>
@@ -2865,17 +2871,17 @@
       <c r="G128"/>
       <c r="H128"/>
       <c r="I128">
-        <v>0.96707415200000002</v>
+        <v>0.96642592500000002</v>
       </c>
       <c r="J128"/>
       <c r="K128"/>
     </row>
     <row r="129">
       <c r="A129" s="1">
-        <v>45046</v>
+        <v>44074</v>
       </c>
       <c r="B129" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C129"/>
       <c r="D129"/>
@@ -2884,17 +2890,17 @@
       <c r="G129"/>
       <c r="H129"/>
       <c r="I129">
-        <v>0.96925515399999995</v>
+        <v>0.96944143699999996</v>
       </c>
       <c r="J129"/>
       <c r="K129"/>
     </row>
     <row r="130">
       <c r="A130" s="1">
-        <v>45077</v>
+        <v>44104</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C130"/>
       <c r="D130"/>
@@ -2903,17 +2909,17 @@
       <c r="G130"/>
       <c r="H130"/>
       <c r="I130">
-        <v>0.96652859800000002</v>
+        <v>0.97343859600000004</v>
       </c>
       <c r="J130"/>
       <c r="K130"/>
     </row>
     <row r="131">
       <c r="A131" s="1">
-        <v>45077</v>
+        <v>44104</v>
       </c>
       <c r="B131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C131"/>
       <c r="D131"/>
@@ -2922,17 +2928,17 @@
       <c r="G131"/>
       <c r="H131"/>
       <c r="I131">
-        <v>0.96528200799999997</v>
+        <v>0.96038902699999995</v>
       </c>
       <c r="J131"/>
       <c r="K131"/>
     </row>
     <row r="132">
       <c r="A132" s="1">
-        <v>45107</v>
+        <v>44104</v>
       </c>
       <c r="B132" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C132"/>
       <c r="D132"/>
@@ -2941,17 +2947,17 @@
       <c r="G132"/>
       <c r="H132"/>
       <c r="I132">
-        <v>0.96515969899999998</v>
+        <v>0.971102786</v>
       </c>
       <c r="J132"/>
       <c r="K132"/>
     </row>
     <row r="133">
       <c r="A133" s="1">
-        <v>45107</v>
+        <v>44104</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C133"/>
       <c r="D133"/>
@@ -2960,17 +2966,17 @@
       <c r="G133"/>
       <c r="H133"/>
       <c r="I133">
-        <v>0.96687473700000004</v>
+        <v>0.91926021599999996</v>
       </c>
       <c r="J133"/>
       <c r="K133"/>
     </row>
     <row r="134">
       <c r="A134" s="1">
-        <v>45138</v>
+        <v>44135</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C134"/>
       <c r="D134"/>
@@ -2979,17 +2985,17 @@
       <c r="G134"/>
       <c r="H134"/>
       <c r="I134">
-        <v>0.96470546099999999</v>
+        <v>0.91857518699999996</v>
       </c>
       <c r="J134"/>
       <c r="K134"/>
     </row>
     <row r="135">
       <c r="A135" s="1">
-        <v>45138</v>
+        <v>44135</v>
       </c>
       <c r="B135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C135"/>
       <c r="D135"/>
@@ -2998,17 +3004,17 @@
       <c r="G135"/>
       <c r="H135"/>
       <c r="I135">
-        <v>0.96355891199999999</v>
+        <v>0.96226355500000005</v>
       </c>
       <c r="J135"/>
       <c r="K135"/>
     </row>
     <row r="136">
       <c r="A136" s="1">
-        <v>45169</v>
+        <v>44135</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C136"/>
       <c r="D136"/>
@@ -3017,17 +3023,17 @@
       <c r="G136"/>
       <c r="H136"/>
       <c r="I136">
-        <v>0.96396009599999999</v>
+        <v>0.97298795100000002</v>
       </c>
       <c r="J136"/>
       <c r="K136"/>
     </row>
     <row r="137">
       <c r="A137" s="1">
-        <v>45169</v>
+        <v>44135</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C137"/>
       <c r="D137"/>
@@ -3036,17 +3042,17 @@
       <c r="G137"/>
       <c r="H137"/>
       <c r="I137">
-        <v>0.96699284799999996</v>
+        <v>0.97225853200000001</v>
       </c>
       <c r="J137"/>
       <c r="K137"/>
     </row>
     <row r="138">
       <c r="A138" s="1">
-        <v>45199</v>
+        <v>44165</v>
       </c>
       <c r="B138" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C138"/>
       <c r="D138"/>
@@ -3055,17 +3061,17 @@
       <c r="G138"/>
       <c r="H138"/>
       <c r="I138">
-        <v>0.96312640400000005</v>
+        <v>0.97339068399999995</v>
       </c>
       <c r="J138"/>
       <c r="K138"/>
     </row>
     <row r="139">
       <c r="A139" s="1">
-        <v>45199</v>
+        <v>44165</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C139"/>
       <c r="D139"/>
@@ -3074,14 +3080,14 @@
       <c r="G139"/>
       <c r="H139"/>
       <c r="I139">
-        <v>0.96438047100000002</v>
+        <v>0.97229310300000005</v>
       </c>
       <c r="J139"/>
       <c r="K139"/>
     </row>
     <row r="140">
       <c r="A140" s="1">
-        <v>45230</v>
+        <v>44165</v>
       </c>
       <c r="B140" t="s">
         <v>11</v>
@@ -3093,14 +3099,14 @@
       <c r="G140"/>
       <c r="H140"/>
       <c r="I140">
-        <v>0.96046696600000003</v>
+        <v>0.92480947599999996</v>
       </c>
       <c r="J140"/>
       <c r="K140"/>
     </row>
     <row r="141">
       <c r="A141" s="1">
-        <v>45230</v>
+        <v>44165</v>
       </c>
       <c r="B141" t="s">
         <v>12</v>
@@ -3112,14 +3118,14 @@
       <c r="G141"/>
       <c r="H141"/>
       <c r="I141">
-        <v>0.96300210600000002</v>
+        <v>0.96277727599999996</v>
       </c>
       <c r="J141"/>
       <c r="K141"/>
     </row>
     <row r="142">
       <c r="A142" s="1">
-        <v>45260</v>
+        <v>44196</v>
       </c>
       <c r="B142" t="s">
         <v>11</v>
@@ -3131,14 +3137,14 @@
       <c r="G142"/>
       <c r="H142"/>
       <c r="I142">
-        <v>0.962007575</v>
+        <v>0.930760323</v>
       </c>
       <c r="J142"/>
       <c r="K142"/>
     </row>
     <row r="143">
       <c r="A143" s="1">
-        <v>45260</v>
+        <v>44196</v>
       </c>
       <c r="B143" t="s">
         <v>12</v>
@@ -3150,17 +3156,17 @@
       <c r="G143"/>
       <c r="H143"/>
       <c r="I143">
-        <v>0.96566613599999995</v>
+        <v>0.96430688099999995</v>
       </c>
       <c r="J143"/>
       <c r="K143"/>
     </row>
     <row r="144">
       <c r="A144" s="1">
-        <v>45291</v>
+        <v>44196</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C144"/>
       <c r="D144"/>
@@ -3169,17 +3175,17 @@
       <c r="G144"/>
       <c r="H144"/>
       <c r="I144">
-        <v>0.96386830599999995</v>
+        <v>0.97255102000000004</v>
       </c>
       <c r="J144"/>
       <c r="K144"/>
     </row>
     <row r="145">
       <c r="A145" s="1">
-        <v>45291</v>
+        <v>44196</v>
       </c>
       <c r="B145" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C145"/>
       <c r="D145"/>
@@ -3188,14 +3194,14 @@
       <c r="G145"/>
       <c r="H145"/>
       <c r="I145">
-        <v>0.958810897</v>
+        <v>0.97181707299999998</v>
       </c>
       <c r="J145"/>
       <c r="K145"/>
     </row>
     <row r="146">
       <c r="A146" s="1">
-        <v>45322</v>
+        <v>44227</v>
       </c>
       <c r="B146" t="s">
         <v>11</v>
@@ -3207,14 +3213,14 @@
       <c r="G146"/>
       <c r="H146"/>
       <c r="I146">
-        <v>0.95748739400000005</v>
+        <v>0.92784540599999998</v>
       </c>
       <c r="J146"/>
       <c r="K146"/>
     </row>
     <row r="147">
       <c r="A147" s="1">
-        <v>45322</v>
+        <v>44227</v>
       </c>
       <c r="B147" t="s">
         <v>12</v>
@@ -3226,17 +3232,17 @@
       <c r="G147"/>
       <c r="H147"/>
       <c r="I147">
-        <v>0.95922320599999999</v>
+        <v>0.96400153799999999</v>
       </c>
       <c r="J147"/>
       <c r="K147"/>
     </row>
     <row r="148">
       <c r="A148" s="1">
-        <v>45351</v>
+        <v>44227</v>
       </c>
       <c r="B148" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C148"/>
       <c r="D148"/>
@@ -3245,17 +3251,17 @@
       <c r="G148"/>
       <c r="H148"/>
       <c r="I148">
-        <v>0.962743444</v>
+        <v>0.97141935400000001</v>
       </c>
       <c r="J148"/>
       <c r="K148"/>
     </row>
     <row r="149">
       <c r="A149" s="1">
-        <v>45351</v>
+        <v>44227</v>
       </c>
       <c r="B149" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C149"/>
       <c r="D149"/>
@@ -3264,14 +3270,14 @@
       <c r="G149"/>
       <c r="H149"/>
       <c r="I149">
-        <v>0.95856695800000002</v>
+        <v>0.96843636300000002</v>
       </c>
       <c r="J149"/>
       <c r="K149"/>
     </row>
     <row r="150">
       <c r="A150" s="1">
-        <v>45382</v>
+        <v>44255</v>
       </c>
       <c r="B150" t="s">
         <v>11</v>
@@ -3283,14 +3289,14 @@
       <c r="G150"/>
       <c r="H150"/>
       <c r="I150">
-        <v>0.95751562499999998</v>
+        <v>0.93978427600000003</v>
       </c>
       <c r="J150"/>
       <c r="K150"/>
     </row>
     <row r="151">
       <c r="A151" s="1">
-        <v>45382</v>
+        <v>44255</v>
       </c>
       <c r="B151" t="s">
         <v>12</v>
@@ -3302,17 +3308,17 @@
       <c r="G151"/>
       <c r="H151"/>
       <c r="I151">
-        <v>0.96344691299999996</v>
+        <v>0.96782093300000005</v>
       </c>
       <c r="J151"/>
       <c r="K151"/>
     </row>
     <row r="152">
       <c r="A152" s="1">
-        <v>45412</v>
+        <v>44255</v>
       </c>
       <c r="B152" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C152"/>
       <c r="D152"/>
@@ -3321,17 +3327,17 @@
       <c r="G152"/>
       <c r="H152"/>
       <c r="I152">
-        <v>0.96306993600000002</v>
+        <v>0.97675987900000005</v>
       </c>
       <c r="J152"/>
       <c r="K152"/>
     </row>
     <row r="153">
       <c r="A153" s="1">
-        <v>45412</v>
+        <v>44255</v>
       </c>
       <c r="B153" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C153"/>
       <c r="D153"/>
@@ -3340,17 +3346,17 @@
       <c r="G153"/>
       <c r="H153"/>
       <c r="I153">
-        <v>0.95866385799999998</v>
+        <v>0.97066666599999996</v>
       </c>
       <c r="J153"/>
       <c r="K153"/>
     </row>
     <row r="154">
       <c r="A154" s="1">
-        <v>45443</v>
+        <v>44286</v>
       </c>
       <c r="B154" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C154"/>
       <c r="D154"/>
@@ -3359,17 +3365,17 @@
       <c r="G154"/>
       <c r="H154"/>
       <c r="I154">
-        <v>0.96343756000000003</v>
+        <v>0.98115238000000005</v>
       </c>
       <c r="J154"/>
       <c r="K154"/>
     </row>
     <row r="155">
       <c r="A155" s="1">
-        <v>45443</v>
+        <v>44286</v>
       </c>
       <c r="B155" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C155"/>
       <c r="D155"/>
@@ -3378,17 +3384,17 @@
       <c r="G155"/>
       <c r="H155"/>
       <c r="I155">
-        <v>0.954478983</v>
+        <v>0.98263298600000004</v>
       </c>
       <c r="J155"/>
       <c r="K155"/>
     </row>
     <row r="156">
       <c r="A156" s="1">
-        <v>45473</v>
+        <v>44286</v>
       </c>
       <c r="B156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C156"/>
       <c r="D156"/>
@@ -3397,17 +3403,17 @@
       <c r="G156"/>
       <c r="H156"/>
       <c r="I156">
-        <v>0.96196896899999995</v>
+        <v>0.95504844099999997</v>
       </c>
       <c r="J156"/>
       <c r="K156"/>
     </row>
     <row r="157">
       <c r="A157" s="1">
-        <v>45473</v>
+        <v>44286</v>
       </c>
       <c r="B157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C157"/>
       <c r="D157"/>
@@ -3416,14 +3422,14 @@
       <c r="G157"/>
       <c r="H157"/>
       <c r="I157">
-        <v>0.94964089100000004</v>
+        <v>0.97500982899999999</v>
       </c>
       <c r="J157"/>
       <c r="K157"/>
     </row>
     <row r="158">
       <c r="A158" s="1">
-        <v>45504</v>
+        <v>44316</v>
       </c>
       <c r="B158" t="s">
         <v>12</v>
@@ -3435,17 +3441,17 @@
       <c r="G158"/>
       <c r="H158"/>
       <c r="I158">
-        <v>0.964105459</v>
+        <v>0.98172492499999997</v>
       </c>
       <c r="J158"/>
       <c r="K158"/>
     </row>
     <row r="159">
       <c r="A159" s="1">
-        <v>45504</v>
+        <v>44316</v>
       </c>
       <c r="B159" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C159"/>
       <c r="D159"/>
@@ -3454,14 +3460,14 @@
       <c r="G159"/>
       <c r="H159"/>
       <c r="I159">
-        <v>0.94915046999999997</v>
+        <v>0.98082178200000003</v>
       </c>
       <c r="J159"/>
       <c r="K159"/>
     </row>
     <row r="160">
       <c r="A160" s="1">
-        <v>45535</v>
+        <v>44316</v>
       </c>
       <c r="B160" t="s">
         <v>11</v>
@@ -3473,17 +3479,17 @@
       <c r="G160"/>
       <c r="H160"/>
       <c r="I160">
-        <v>0.95015508800000004</v>
+        <v>0.96298343600000003</v>
       </c>
       <c r="J160"/>
       <c r="K160"/>
     </row>
     <row r="161">
       <c r="A161" s="1">
-        <v>45535</v>
+        <v>44316</v>
       </c>
       <c r="B161" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C161"/>
       <c r="D161"/>
@@ -3492,14 +3498,14 @@
       <c r="G161"/>
       <c r="H161"/>
       <c r="I161">
-        <v>0.96486247599999997</v>
+        <v>0.98875170199999995</v>
       </c>
       <c r="J161"/>
       <c r="K161"/>
     </row>
     <row r="162">
       <c r="A162" s="1">
-        <v>45565</v>
+        <v>44347</v>
       </c>
       <c r="B162" t="s">
         <v>12</v>
@@ -3511,17 +3517,17 @@
       <c r="G162"/>
       <c r="H162"/>
       <c r="I162">
-        <v>0.96490344299999997</v>
+        <v>0.98871489300000004</v>
       </c>
       <c r="J162"/>
       <c r="K162"/>
     </row>
     <row r="163">
       <c r="A163" s="1">
-        <v>45565</v>
+        <v>44347</v>
       </c>
       <c r="B163" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C163"/>
       <c r="D163"/>
@@ -3530,17 +3536,17 @@
       <c r="G163"/>
       <c r="H163"/>
       <c r="I163">
-        <v>0.94917679499999996</v>
+        <v>0.99444512600000001</v>
       </c>
       <c r="J163"/>
       <c r="K163"/>
     </row>
     <row r="164">
       <c r="A164" s="1">
-        <v>45596</v>
+        <v>44347</v>
       </c>
       <c r="B164" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C164"/>
       <c r="D164"/>
@@ -3549,17 +3555,17 @@
       <c r="G164"/>
       <c r="H164"/>
       <c r="I164">
-        <v>0.94961730700000002</v>
+        <v>0.97826315699999999</v>
       </c>
       <c r="J164"/>
       <c r="K164"/>
     </row>
     <row r="165">
       <c r="A165" s="1">
-        <v>45596</v>
+        <v>44347</v>
       </c>
       <c r="B165" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C165"/>
       <c r="D165"/>
@@ -3568,17 +3574,17 @@
       <c r="G165"/>
       <c r="H165"/>
       <c r="I165">
-        <v>0.96098466500000002</v>
+        <v>0.971455289</v>
       </c>
       <c r="J165"/>
       <c r="K165"/>
     </row>
     <row r="166">
       <c r="A166" s="1">
-        <v>45626</v>
+        <v>44377</v>
       </c>
       <c r="B166" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C166"/>
       <c r="D166"/>
@@ -3587,17 +3593,17 @@
       <c r="G166"/>
       <c r="H166"/>
       <c r="I166">
-        <v>0.94401605499999997</v>
+        <v>0.99681448299999997</v>
       </c>
       <c r="J166"/>
       <c r="K166"/>
     </row>
     <row r="167">
       <c r="A167" s="1">
-        <v>45626</v>
+        <v>44377</v>
       </c>
       <c r="B167" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C167"/>
       <c r="D167"/>
@@ -3606,17 +3612,17 @@
       <c r="G167"/>
       <c r="H167"/>
       <c r="I167">
-        <v>0.95888720500000002</v>
+        <v>0.96560291300000001</v>
       </c>
       <c r="J167"/>
       <c r="K167"/>
     </row>
     <row r="168">
       <c r="A168" s="1">
-        <v>45657</v>
+        <v>44377</v>
       </c>
       <c r="B168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C168"/>
       <c r="D168"/>
@@ -3625,17 +3631,17 @@
       <c r="G168"/>
       <c r="H168"/>
       <c r="I168">
-        <v>0.94864330200000002</v>
+        <v>0.99323991</v>
       </c>
       <c r="J168"/>
       <c r="K168"/>
     </row>
     <row r="169">
       <c r="A169" s="1">
-        <v>45657</v>
+        <v>44377</v>
       </c>
       <c r="B169" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C169"/>
       <c r="D169"/>
@@ -3644,17 +3650,17 @@
       <c r="G169"/>
       <c r="H169"/>
       <c r="I169">
-        <v>0.959159651</v>
+        <v>0.98497333300000001</v>
       </c>
       <c r="J169"/>
       <c r="K169"/>
     </row>
     <row r="170">
       <c r="A170" s="1">
-        <v>45688</v>
+        <v>44408</v>
       </c>
       <c r="B170" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C170"/>
       <c r="D170"/>
@@ -3663,17 +3669,17 @@
       <c r="G170"/>
       <c r="H170"/>
       <c r="I170">
-        <v>0.95851715400000004</v>
+        <v>0.99406334200000002</v>
       </c>
       <c r="J170"/>
       <c r="K170"/>
     </row>
     <row r="171">
       <c r="A171" s="1">
-        <v>45688</v>
+        <v>44408</v>
       </c>
       <c r="B171" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C171"/>
       <c r="D171"/>
@@ -3682,14 +3688,14 @@
       <c r="G171"/>
       <c r="H171"/>
       <c r="I171">
-        <v>0.94677738499999997</v>
+        <v>0.98264835100000003</v>
       </c>
       <c r="J171"/>
       <c r="K171"/>
     </row>
     <row r="172">
       <c r="A172" s="1">
-        <v>45716</v>
+        <v>44408</v>
       </c>
       <c r="B172" t="s">
         <v>11</v>
@@ -3701,14 +3707,14 @@
       <c r="G172"/>
       <c r="H172"/>
       <c r="I172">
-        <v>0.946762204</v>
+        <v>0.95679643299999995</v>
       </c>
       <c r="J172"/>
       <c r="K172"/>
     </row>
     <row r="173">
       <c r="A173" s="1">
-        <v>45716</v>
+        <v>44408</v>
       </c>
       <c r="B173" t="s">
         <v>12</v>
@@ -3720,17 +3726,17 @@
       <c r="G173"/>
       <c r="H173"/>
       <c r="I173">
-        <v>0.95488026599999998</v>
+        <v>0.99466215099999999</v>
       </c>
       <c r="J173"/>
       <c r="K173"/>
     </row>
     <row r="174">
       <c r="A174" s="1">
-        <v>45747</v>
+        <v>44439</v>
       </c>
       <c r="B174" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C174"/>
       <c r="D174"/>
@@ -3739,14 +3745,14 @@
       <c r="G174"/>
       <c r="H174"/>
       <c r="I174">
-        <v>0.95963664999999998</v>
+        <v>0.99268951800000005</v>
       </c>
       <c r="J174"/>
       <c r="K174"/>
     </row>
     <row r="175">
       <c r="A175" s="1">
-        <v>45747</v>
+        <v>44439</v>
       </c>
       <c r="B175" t="s">
         <v>11</v>
@@ -3758,17 +3764,17 @@
       <c r="G175"/>
       <c r="H175"/>
       <c r="I175">
-        <v>0.94697619</v>
+        <v>0.93926245500000005</v>
       </c>
       <c r="J175"/>
       <c r="K175"/>
     </row>
     <row r="176">
       <c r="A176" s="1">
-        <v>45777</v>
+        <v>44439</v>
       </c>
       <c r="B176" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C176"/>
       <c r="D176"/>
@@ -3777,17 +3783,17 @@
       <c r="G176"/>
       <c r="H176"/>
       <c r="I176">
-        <v>0.95623022599999996</v>
+        <v>0.98024193500000001</v>
       </c>
       <c r="J176"/>
       <c r="K176"/>
     </row>
     <row r="177">
       <c r="A177" s="1">
-        <v>45777</v>
+        <v>44439</v>
       </c>
       <c r="B177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C177"/>
       <c r="D177"/>
@@ -3796,17 +3802,17 @@
       <c r="G177"/>
       <c r="H177"/>
       <c r="I177">
-        <v>0.94217399599999996</v>
+        <v>0.99792353899999997</v>
       </c>
       <c r="J177"/>
       <c r="K177"/>
     </row>
     <row r="178">
       <c r="A178" s="1">
-        <v>45808</v>
+        <v>44469</v>
       </c>
       <c r="B178" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C178"/>
       <c r="D178"/>
@@ -3815,17 +3821,17 @@
       <c r="G178"/>
       <c r="H178"/>
       <c r="I178">
-        <v>0.95920682599999996</v>
+        <v>0.93498919800000002</v>
       </c>
       <c r="J178"/>
       <c r="K178"/>
     </row>
     <row r="179">
       <c r="A179" s="1">
-        <v>45808</v>
+        <v>44469</v>
       </c>
       <c r="B179" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C179"/>
       <c r="D179"/>
@@ -3834,17 +3840,17 @@
       <c r="G179"/>
       <c r="H179"/>
       <c r="I179">
-        <v>0.94009731500000004</v>
+        <v>0.97705633800000002</v>
       </c>
       <c r="J179"/>
       <c r="K179"/>
     </row>
     <row r="180">
       <c r="A180" s="1">
-        <v>45838</v>
+        <v>44469</v>
       </c>
       <c r="B180" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C180"/>
       <c r="D180"/>
@@ -3853,17 +3859,17 @@
       <c r="G180"/>
       <c r="H180"/>
       <c r="I180">
-        <v>0.95419936699999996</v>
+        <v>0.99234412299999997</v>
       </c>
       <c r="J180"/>
       <c r="K180"/>
     </row>
     <row r="181">
       <c r="A181" s="1">
-        <v>45838</v>
+        <v>44469</v>
       </c>
       <c r="B181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C181"/>
       <c r="D181"/>
@@ -3872,17 +3878,17 @@
       <c r="G181"/>
       <c r="H181"/>
       <c r="I181">
-        <v>0.93863945500000001</v>
+        <v>0.99863808600000004</v>
       </c>
       <c r="J181"/>
       <c r="K181"/>
     </row>
     <row r="182">
       <c r="A182" s="1">
-        <v>45869</v>
+        <v>44500</v>
       </c>
       <c r="B182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C182"/>
       <c r="D182"/>
@@ -3891,17 +3897,17 @@
       <c r="G182"/>
       <c r="H182"/>
       <c r="I182">
-        <v>0.93528169000000005</v>
+        <v>0.99754848100000004</v>
       </c>
       <c r="J182"/>
       <c r="K182"/>
     </row>
     <row r="183">
       <c r="A183" s="1">
-        <v>45869</v>
+        <v>44500</v>
       </c>
       <c r="B183" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C183"/>
       <c r="D183"/>
@@ -3910,17 +3916,17 @@
       <c r="G183"/>
       <c r="H183"/>
       <c r="I183">
-        <v>0.95386493000000006</v>
+        <v>0.94198309599999996</v>
       </c>
       <c r="J183"/>
       <c r="K183"/>
     </row>
     <row r="184">
       <c r="A184" s="1">
-        <v>45900</v>
+        <v>44500</v>
       </c>
       <c r="B184" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C184"/>
       <c r="D184"/>
@@ -3929,17 +3935,17 @@
       <c r="G184"/>
       <c r="H184"/>
       <c r="I184">
-        <v>0.937155038</v>
+        <v>0.99042023700000004</v>
       </c>
       <c r="J184"/>
       <c r="K184"/>
     </row>
     <row r="185">
       <c r="A185" s="1">
-        <v>45900</v>
+        <v>44500</v>
       </c>
       <c r="B185" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C185"/>
       <c r="D185"/>
@@ -3948,14 +3954,14 @@
       <c r="G185"/>
       <c r="H185"/>
       <c r="I185">
-        <v>0.95646421699999995</v>
+        <v>0.97688461500000001</v>
       </c>
       <c r="J185"/>
       <c r="K185"/>
     </row>
     <row r="186">
       <c r="A186" s="1">
-        <v>45930</v>
+        <v>44530</v>
       </c>
       <c r="B186" t="s">
         <v>11</v>
@@ -3967,17 +3973,17 @@
       <c r="G186"/>
       <c r="H186"/>
       <c r="I186">
-        <v>0.93580511099999997</v>
+        <v>0.94217577399999997</v>
       </c>
       <c r="J186"/>
       <c r="K186"/>
     </row>
     <row r="187">
       <c r="A187" s="1">
-        <v>45930</v>
+        <v>44530</v>
       </c>
       <c r="B187" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C187"/>
       <c r="D187"/>
@@ -3986,17 +3992,17 @@
       <c r="G187"/>
       <c r="H187"/>
       <c r="I187">
-        <v>0.95521713500000005</v>
+        <v>0.99205819799999995</v>
       </c>
       <c r="J187"/>
       <c r="K187"/>
     </row>
     <row r="188">
       <c r="A188" s="1">
-        <v>45961</v>
+        <v>44530</v>
       </c>
       <c r="B188" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C188"/>
       <c r="D188"/>
@@ -4005,17 +4011,17 @@
       <c r="G188"/>
       <c r="H188"/>
       <c r="I188">
-        <v>0.955836044</v>
+        <v>0.98204761900000004</v>
       </c>
       <c r="J188"/>
       <c r="K188"/>
     </row>
     <row r="189">
       <c r="A189" s="1">
-        <v>45961</v>
+        <v>44530</v>
       </c>
       <c r="B189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C189"/>
       <c r="D189"/>
@@ -4024,17 +4030,17 @@
       <c r="G189"/>
       <c r="H189"/>
       <c r="I189">
-        <v>0.939681137</v>
+        <v>1.0024575950000001</v>
       </c>
       <c r="J189"/>
       <c r="K189"/>
     </row>
     <row r="190">
       <c r="A190" s="1">
-        <v>45991</v>
+        <v>44561</v>
       </c>
       <c r="B190" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C190"/>
       <c r="D190"/>
@@ -4043,14 +4049,14 @@
       <c r="G190"/>
       <c r="H190"/>
       <c r="I190">
-        <v>0.94353248999999995</v>
+        <v>0.97110389600000002</v>
       </c>
       <c r="J190"/>
       <c r="K190"/>
     </row>
     <row r="191">
       <c r="A191" s="1">
-        <v>45991</v>
+        <v>44561</v>
       </c>
       <c r="B191" t="s">
         <v>12</v>
@@ -4062,17 +4068,17 @@
       <c r="G191"/>
       <c r="H191"/>
       <c r="I191">
-        <v>0.95824140499999999</v>
+        <v>1.001252713</v>
       </c>
       <c r="J191"/>
       <c r="K191"/>
     </row>
     <row r="192">
       <c r="A192" s="1">
-        <v>46022</v>
+        <v>44561</v>
       </c>
       <c r="B192" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C192"/>
       <c r="D192"/>
@@ -4081,17 +4087,17 @@
       <c r="G192"/>
       <c r="H192"/>
       <c r="I192">
-        <v>0.95439154400000004</v>
+        <v>0.93179081600000002</v>
       </c>
       <c r="J192"/>
       <c r="K192"/>
     </row>
     <row r="193">
       <c r="A193" s="1">
-        <v>46022</v>
+        <v>44561</v>
       </c>
       <c r="B193" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C193"/>
       <c r="D193"/>
@@ -4100,10 +4106,3658 @@
       <c r="G193"/>
       <c r="H193"/>
       <c r="I193">
-        <v>0.94334278599999999</v>
+        <v>0.98889928999999999</v>
       </c>
       <c r="J193"/>
       <c r="K193"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1">
+        <v>44592</v>
+      </c>
+      <c r="B194" t="s">
+        <v>14</v>
+      </c>
+      <c r="C194"/>
+      <c r="D194"/>
+      <c r="E194"/>
+      <c r="F194"/>
+      <c r="G194"/>
+      <c r="H194"/>
+      <c r="I194">
+        <v>0.98825396799999998</v>
+      </c>
+      <c r="J194"/>
+      <c r="K194"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1">
+        <v>44592</v>
+      </c>
+      <c r="B195" t="s">
+        <v>12</v>
+      </c>
+      <c r="C195"/>
+      <c r="D195"/>
+      <c r="E195"/>
+      <c r="F195"/>
+      <c r="G195"/>
+      <c r="H195"/>
+      <c r="I195">
+        <v>1.005884974</v>
+      </c>
+      <c r="J195"/>
+      <c r="K195"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1">
+        <v>44592</v>
+      </c>
+      <c r="B196" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196"/>
+      <c r="D196"/>
+      <c r="E196"/>
+      <c r="F196"/>
+      <c r="G196"/>
+      <c r="H196"/>
+      <c r="I196">
+        <v>0.945394603</v>
+      </c>
+      <c r="J196"/>
+      <c r="K196"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1">
+        <v>44592</v>
+      </c>
+      <c r="B197" t="s">
+        <v>13</v>
+      </c>
+      <c r="C197"/>
+      <c r="D197"/>
+      <c r="E197"/>
+      <c r="F197"/>
+      <c r="G197"/>
+      <c r="H197"/>
+      <c r="I197">
+        <v>0.99004576300000002</v>
+      </c>
+      <c r="J197"/>
+      <c r="K197"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B198" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198"/>
+      <c r="D198"/>
+      <c r="E198"/>
+      <c r="F198"/>
+      <c r="G198"/>
+      <c r="H198"/>
+      <c r="I198">
+        <v>1.0124920799999999</v>
+      </c>
+      <c r="J198"/>
+      <c r="K198"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B199" t="s">
+        <v>11</v>
+      </c>
+      <c r="C199"/>
+      <c r="D199"/>
+      <c r="E199"/>
+      <c r="F199"/>
+      <c r="G199"/>
+      <c r="H199"/>
+      <c r="I199">
+        <v>0.936436873</v>
+      </c>
+      <c r="J199"/>
+      <c r="K199"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B200" t="s">
+        <v>13</v>
+      </c>
+      <c r="C200"/>
+      <c r="D200"/>
+      <c r="E200"/>
+      <c r="F200"/>
+      <c r="G200"/>
+      <c r="H200"/>
+      <c r="I200">
+        <v>0.99567658599999997</v>
+      </c>
+      <c r="J200"/>
+      <c r="K200"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B201" t="s">
+        <v>14</v>
+      </c>
+      <c r="C201"/>
+      <c r="D201"/>
+      <c r="E201"/>
+      <c r="F201"/>
+      <c r="G201"/>
+      <c r="H201"/>
+      <c r="I201">
+        <v>0.96851785700000004</v>
+      </c>
+      <c r="J201"/>
+      <c r="K201"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B202" t="s">
+        <v>14</v>
+      </c>
+      <c r="C202"/>
+      <c r="D202"/>
+      <c r="E202"/>
+      <c r="F202"/>
+      <c r="G202"/>
+      <c r="H202"/>
+      <c r="I202">
+        <v>0.98815872999999999</v>
+      </c>
+      <c r="J202"/>
+      <c r="K202"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B203" t="s">
+        <v>12</v>
+      </c>
+      <c r="C203"/>
+      <c r="D203"/>
+      <c r="E203"/>
+      <c r="F203"/>
+      <c r="G203"/>
+      <c r="H203"/>
+      <c r="I203">
+        <v>1.0204989419999999</v>
+      </c>
+      <c r="J203"/>
+      <c r="K203"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B204" t="s">
+        <v>11</v>
+      </c>
+      <c r="C204"/>
+      <c r="D204"/>
+      <c r="E204"/>
+      <c r="F204"/>
+      <c r="G204"/>
+      <c r="H204"/>
+      <c r="I204">
+        <v>0.94835136600000003</v>
+      </c>
+      <c r="J204"/>
+      <c r="K204"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B205" t="s">
+        <v>13</v>
+      </c>
+      <c r="C205"/>
+      <c r="D205"/>
+      <c r="E205"/>
+      <c r="F205"/>
+      <c r="G205"/>
+      <c r="H205"/>
+      <c r="I205">
+        <v>1.0019591750000001</v>
+      </c>
+      <c r="J205"/>
+      <c r="K205"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1">
+        <v>44681</v>
+      </c>
+      <c r="B206" t="s">
+        <v>13</v>
+      </c>
+      <c r="C206"/>
+      <c r="D206"/>
+      <c r="E206"/>
+      <c r="F206"/>
+      <c r="G206"/>
+      <c r="H206"/>
+      <c r="I206">
+        <v>1.0023537410000001</v>
+      </c>
+      <c r="J206"/>
+      <c r="K206"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1">
+        <v>44681</v>
+      </c>
+      <c r="B207" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207"/>
+      <c r="D207"/>
+      <c r="E207"/>
+      <c r="F207"/>
+      <c r="G207"/>
+      <c r="H207"/>
+      <c r="I207">
+        <v>1.0162994750000001</v>
+      </c>
+      <c r="J207"/>
+      <c r="K207"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1">
+        <v>44681</v>
+      </c>
+      <c r="B208" t="s">
+        <v>11</v>
+      </c>
+      <c r="C208"/>
+      <c r="D208"/>
+      <c r="E208"/>
+      <c r="F208"/>
+      <c r="G208"/>
+      <c r="H208"/>
+      <c r="I208">
+        <v>0.951875531</v>
+      </c>
+      <c r="J208"/>
+      <c r="K208"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1">
+        <v>44681</v>
+      </c>
+      <c r="B209" t="s">
+        <v>14</v>
+      </c>
+      <c r="C209"/>
+      <c r="D209"/>
+      <c r="E209"/>
+      <c r="F209"/>
+      <c r="G209"/>
+      <c r="H209"/>
+      <c r="I209">
+        <v>0.99315068399999995</v>
+      </c>
+      <c r="J209"/>
+      <c r="K209"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B210" t="s">
+        <v>12</v>
+      </c>
+      <c r="C210"/>
+      <c r="D210"/>
+      <c r="E210"/>
+      <c r="F210"/>
+      <c r="G210"/>
+      <c r="H210"/>
+      <c r="I210">
+        <v>1.0073205380000001</v>
+      </c>
+      <c r="J210"/>
+      <c r="K210"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B211" t="s">
+        <v>11</v>
+      </c>
+      <c r="C211"/>
+      <c r="D211"/>
+      <c r="E211"/>
+      <c r="F211"/>
+      <c r="G211"/>
+      <c r="H211"/>
+      <c r="I211">
+        <v>0.95104217599999996</v>
+      </c>
+      <c r="J211"/>
+      <c r="K211"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B212" t="s">
+        <v>14</v>
+      </c>
+      <c r="C212"/>
+      <c r="D212"/>
+      <c r="E212"/>
+      <c r="F212"/>
+      <c r="G212"/>
+      <c r="H212"/>
+      <c r="I212">
+        <v>0.98651999999999995</v>
+      </c>
+      <c r="J212"/>
+      <c r="K212"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B213" t="s">
+        <v>13</v>
+      </c>
+      <c r="C213"/>
+      <c r="D213"/>
+      <c r="E213"/>
+      <c r="F213"/>
+      <c r="G213"/>
+      <c r="H213"/>
+      <c r="I213">
+        <v>0.99835944799999998</v>
+      </c>
+      <c r="J213"/>
+      <c r="K213"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B214" t="s">
+        <v>14</v>
+      </c>
+      <c r="C214"/>
+      <c r="D214"/>
+      <c r="E214"/>
+      <c r="F214"/>
+      <c r="G214"/>
+      <c r="H214"/>
+      <c r="I214">
+        <v>0.97313846100000001</v>
+      </c>
+      <c r="J214"/>
+      <c r="K214"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B215" t="s">
+        <v>12</v>
+      </c>
+      <c r="C215"/>
+      <c r="D215"/>
+      <c r="E215"/>
+      <c r="F215"/>
+      <c r="G215"/>
+      <c r="H215"/>
+      <c r="I215">
+        <v>0.99424315299999999</v>
+      </c>
+      <c r="J215"/>
+      <c r="K215"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B216" t="s">
+        <v>13</v>
+      </c>
+      <c r="C216"/>
+      <c r="D216"/>
+      <c r="E216"/>
+      <c r="F216"/>
+      <c r="G216"/>
+      <c r="H216"/>
+      <c r="I216">
+        <v>0.99349516900000001</v>
+      </c>
+      <c r="J216"/>
+      <c r="K216"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B217" t="s">
+        <v>11</v>
+      </c>
+      <c r="C217"/>
+      <c r="D217"/>
+      <c r="E217"/>
+      <c r="F217"/>
+      <c r="G217"/>
+      <c r="H217"/>
+      <c r="I217">
+        <v>0.94730775199999995</v>
+      </c>
+      <c r="J217"/>
+      <c r="K217"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1">
+        <v>44773</v>
+      </c>
+      <c r="B218" t="s">
+        <v>11</v>
+      </c>
+      <c r="C218"/>
+      <c r="D218"/>
+      <c r="E218"/>
+      <c r="F218"/>
+      <c r="G218"/>
+      <c r="H218"/>
+      <c r="I218">
+        <v>0.93708413400000001</v>
+      </c>
+      <c r="J218"/>
+      <c r="K218"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1">
+        <v>44773</v>
+      </c>
+      <c r="B219" t="s">
+        <v>13</v>
+      </c>
+      <c r="C219"/>
+      <c r="D219"/>
+      <c r="E219"/>
+      <c r="F219"/>
+      <c r="G219"/>
+      <c r="H219"/>
+      <c r="I219">
+        <v>0.98393694799999998</v>
+      </c>
+      <c r="J219"/>
+      <c r="K219"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1">
+        <v>44773</v>
+      </c>
+      <c r="B220" t="s">
+        <v>14</v>
+      </c>
+      <c r="C220"/>
+      <c r="D220"/>
+      <c r="E220"/>
+      <c r="F220"/>
+      <c r="G220"/>
+      <c r="H220"/>
+      <c r="I220">
+        <v>0.98186274500000004</v>
+      </c>
+      <c r="J220"/>
+      <c r="K220"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1">
+        <v>44773</v>
+      </c>
+      <c r="B221" t="s">
+        <v>12</v>
+      </c>
+      <c r="C221"/>
+      <c r="D221"/>
+      <c r="E221"/>
+      <c r="F221"/>
+      <c r="G221"/>
+      <c r="H221"/>
+      <c r="I221">
+        <v>0.98418557900000003</v>
+      </c>
+      <c r="J221"/>
+      <c r="K221"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1">
+        <v>44804</v>
+      </c>
+      <c r="B222" t="s">
+        <v>11</v>
+      </c>
+      <c r="C222"/>
+      <c r="D222"/>
+      <c r="E222"/>
+      <c r="F222"/>
+      <c r="G222"/>
+      <c r="H222"/>
+      <c r="I222">
+        <v>0.92410800000000004</v>
+      </c>
+      <c r="J222"/>
+      <c r="K222"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1">
+        <v>44804</v>
+      </c>
+      <c r="B223" t="s">
+        <v>13</v>
+      </c>
+      <c r="C223"/>
+      <c r="D223"/>
+      <c r="E223"/>
+      <c r="F223"/>
+      <c r="G223"/>
+      <c r="H223"/>
+      <c r="I223">
+        <v>0.97416544100000002</v>
+      </c>
+      <c r="J223"/>
+      <c r="K223"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1">
+        <v>44804</v>
+      </c>
+      <c r="B224" t="s">
+        <v>14</v>
+      </c>
+      <c r="C224"/>
+      <c r="D224"/>
+      <c r="E224"/>
+      <c r="F224"/>
+      <c r="G224"/>
+      <c r="H224"/>
+      <c r="I224">
+        <v>0.95974999999999999</v>
+      </c>
+      <c r="J224"/>
+      <c r="K224"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1">
+        <v>44804</v>
+      </c>
+      <c r="B225" t="s">
+        <v>12</v>
+      </c>
+      <c r="C225"/>
+      <c r="D225"/>
+      <c r="E225"/>
+      <c r="F225"/>
+      <c r="G225"/>
+      <c r="H225"/>
+      <c r="I225">
+        <v>0.975521058</v>
+      </c>
+      <c r="J225"/>
+      <c r="K225"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B226" t="s">
+        <v>11</v>
+      </c>
+      <c r="C226"/>
+      <c r="D226"/>
+      <c r="E226"/>
+      <c r="F226"/>
+      <c r="G226"/>
+      <c r="H226"/>
+      <c r="I226">
+        <v>0.92308425999999999</v>
+      </c>
+      <c r="J226"/>
+      <c r="K226"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B227" t="s">
+        <v>13</v>
+      </c>
+      <c r="C227"/>
+      <c r="D227"/>
+      <c r="E227"/>
+      <c r="F227"/>
+      <c r="G227"/>
+      <c r="H227"/>
+      <c r="I227">
+        <v>0.97081061800000001</v>
+      </c>
+      <c r="J227"/>
+      <c r="K227"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B228" t="s">
+        <v>14</v>
+      </c>
+      <c r="C228"/>
+      <c r="D228"/>
+      <c r="E228"/>
+      <c r="F228"/>
+      <c r="G228"/>
+      <c r="H228"/>
+      <c r="I228">
+        <v>0.96516363599999999</v>
+      </c>
+      <c r="J228"/>
+      <c r="K228"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B229" t="s">
+        <v>12</v>
+      </c>
+      <c r="C229"/>
+      <c r="D229"/>
+      <c r="E229"/>
+      <c r="F229"/>
+      <c r="G229"/>
+      <c r="H229"/>
+      <c r="I229">
+        <v>0.97424290199999997</v>
+      </c>
+      <c r="J229"/>
+      <c r="K229"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B230" t="s">
+        <v>11</v>
+      </c>
+      <c r="C230"/>
+      <c r="D230"/>
+      <c r="E230"/>
+      <c r="F230"/>
+      <c r="G230"/>
+      <c r="H230"/>
+      <c r="I230">
+        <v>0.91682423199999996</v>
+      </c>
+      <c r="J230"/>
+      <c r="K230"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B231" t="s">
+        <v>13</v>
+      </c>
+      <c r="C231"/>
+      <c r="D231"/>
+      <c r="E231"/>
+      <c r="F231"/>
+      <c r="G231"/>
+      <c r="H231"/>
+      <c r="I231">
+        <v>0.97016622399999997</v>
+      </c>
+      <c r="J231"/>
+      <c r="K231"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B232" t="s">
+        <v>14</v>
+      </c>
+      <c r="C232"/>
+      <c r="D232"/>
+      <c r="E232"/>
+      <c r="F232"/>
+      <c r="G232"/>
+      <c r="H232"/>
+      <c r="I232">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="J232"/>
+      <c r="K232"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B233" t="s">
+        <v>12</v>
+      </c>
+      <c r="C233"/>
+      <c r="D233"/>
+      <c r="E233"/>
+      <c r="F233"/>
+      <c r="G233"/>
+      <c r="H233"/>
+      <c r="I233">
+        <v>0.97037606799999998</v>
+      </c>
+      <c r="J233"/>
+      <c r="K233"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B234" t="s">
+        <v>14</v>
+      </c>
+      <c r="C234"/>
+      <c r="D234"/>
+      <c r="E234"/>
+      <c r="F234"/>
+      <c r="G234"/>
+      <c r="H234"/>
+      <c r="I234">
+        <v>0.94051282000000003</v>
+      </c>
+      <c r="J234"/>
+      <c r="K234"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B235" t="s">
+        <v>13</v>
+      </c>
+      <c r="C235"/>
+      <c r="D235"/>
+      <c r="E235"/>
+      <c r="F235"/>
+      <c r="G235"/>
+      <c r="H235"/>
+      <c r="I235">
+        <v>0.96319703199999995</v>
+      </c>
+      <c r="J235"/>
+      <c r="K235"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B236" t="s">
+        <v>12</v>
+      </c>
+      <c r="C236"/>
+      <c r="D236"/>
+      <c r="E236"/>
+      <c r="F236"/>
+      <c r="G236"/>
+      <c r="H236"/>
+      <c r="I236">
+        <v>0.97425297600000005</v>
+      </c>
+      <c r="J236"/>
+      <c r="K236"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B237" t="s">
+        <v>11</v>
+      </c>
+      <c r="C237"/>
+      <c r="D237"/>
+      <c r="E237"/>
+      <c r="F237"/>
+      <c r="G237"/>
+      <c r="H237"/>
+      <c r="I237">
+        <v>0.91505590000000003</v>
+      </c>
+      <c r="J237"/>
+      <c r="K237"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1">
+        <v>44926</v>
+      </c>
+      <c r="B238" t="s">
+        <v>12</v>
+      </c>
+      <c r="C238"/>
+      <c r="D238"/>
+      <c r="E238"/>
+      <c r="F238"/>
+      <c r="G238"/>
+      <c r="H238"/>
+      <c r="I238">
+        <v>0.97058782799999999</v>
+      </c>
+      <c r="J238"/>
+      <c r="K238"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1">
+        <v>44926</v>
+      </c>
+      <c r="B239" t="s">
+        <v>11</v>
+      </c>
+      <c r="C239"/>
+      <c r="D239"/>
+      <c r="E239"/>
+      <c r="F239"/>
+      <c r="G239"/>
+      <c r="H239"/>
+      <c r="I239">
+        <v>0.90637269300000001</v>
+      </c>
+      <c r="J239"/>
+      <c r="K239"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1">
+        <v>44926</v>
+      </c>
+      <c r="B240" t="s">
+        <v>14</v>
+      </c>
+      <c r="C240"/>
+      <c r="D240"/>
+      <c r="E240"/>
+      <c r="F240"/>
+      <c r="G240"/>
+      <c r="H240"/>
+      <c r="I240">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="J240"/>
+      <c r="K240"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1">
+        <v>44926</v>
+      </c>
+      <c r="B241" t="s">
+        <v>13</v>
+      </c>
+      <c r="C241"/>
+      <c r="D241"/>
+      <c r="E241"/>
+      <c r="F241"/>
+      <c r="G241"/>
+      <c r="H241"/>
+      <c r="I241">
+        <v>0.96269139199999998</v>
+      </c>
+      <c r="J241"/>
+      <c r="K241"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B242" t="s">
+        <v>13</v>
+      </c>
+      <c r="C242"/>
+      <c r="D242"/>
+      <c r="E242"/>
+      <c r="F242"/>
+      <c r="G242"/>
+      <c r="H242"/>
+      <c r="I242">
+        <v>0.96049269400000004</v>
+      </c>
+      <c r="J242"/>
+      <c r="K242"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B243" t="s">
+        <v>14</v>
+      </c>
+      <c r="C243"/>
+      <c r="D243"/>
+      <c r="E243"/>
+      <c r="F243"/>
+      <c r="G243"/>
+      <c r="H243"/>
+      <c r="I243">
+        <v>0.94248780399999998</v>
+      </c>
+      <c r="J243"/>
+      <c r="K243"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B244" t="s">
+        <v>12</v>
+      </c>
+      <c r="C244"/>
+      <c r="D244"/>
+      <c r="E244"/>
+      <c r="F244"/>
+      <c r="G244"/>
+      <c r="H244"/>
+      <c r="I244">
+        <v>0.96106456600000001</v>
+      </c>
+      <c r="J244"/>
+      <c r="K244"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B245" t="s">
+        <v>11</v>
+      </c>
+      <c r="C245"/>
+      <c r="D245"/>
+      <c r="E245"/>
+      <c r="F245"/>
+      <c r="G245"/>
+      <c r="H245"/>
+      <c r="I245">
+        <v>0.89999284400000001</v>
+      </c>
+      <c r="J245"/>
+      <c r="K245"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1">
+        <v>44985</v>
+      </c>
+      <c r="B246" t="s">
+        <v>12</v>
+      </c>
+      <c r="C246"/>
+      <c r="D246"/>
+      <c r="E246"/>
+      <c r="F246"/>
+      <c r="G246"/>
+      <c r="H246"/>
+      <c r="I246">
+        <v>0.96751139200000003</v>
+      </c>
+      <c r="J246"/>
+      <c r="K246"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1">
+        <v>44985</v>
+      </c>
+      <c r="B247" t="s">
+        <v>11</v>
+      </c>
+      <c r="C247"/>
+      <c r="D247"/>
+      <c r="E247"/>
+      <c r="F247"/>
+      <c r="G247"/>
+      <c r="H247"/>
+      <c r="I247">
+        <v>0.92062607399999996</v>
+      </c>
+      <c r="J247"/>
+      <c r="K247"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1">
+        <v>44985</v>
+      </c>
+      <c r="B248" t="s">
+        <v>14</v>
+      </c>
+      <c r="C248"/>
+      <c r="D248"/>
+      <c r="E248"/>
+      <c r="F248"/>
+      <c r="G248"/>
+      <c r="H248"/>
+      <c r="I248">
+        <v>0.96618918899999995</v>
+      </c>
+      <c r="J248"/>
+      <c r="K248"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1">
+        <v>44985</v>
+      </c>
+      <c r="B249" t="s">
+        <v>13</v>
+      </c>
+      <c r="C249"/>
+      <c r="D249"/>
+      <c r="E249"/>
+      <c r="F249"/>
+      <c r="G249"/>
+      <c r="H249"/>
+      <c r="I249">
+        <v>0.96013367599999999</v>
+      </c>
+      <c r="J249"/>
+      <c r="K249"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1">
+        <v>45016</v>
+      </c>
+      <c r="B250" t="s">
+        <v>12</v>
+      </c>
+      <c r="C250"/>
+      <c r="D250"/>
+      <c r="E250"/>
+      <c r="F250"/>
+      <c r="G250"/>
+      <c r="H250"/>
+      <c r="I250">
+        <v>0.96868990899999996</v>
+      </c>
+      <c r="J250"/>
+      <c r="K250"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1">
+        <v>45016</v>
+      </c>
+      <c r="B251" t="s">
+        <v>13</v>
+      </c>
+      <c r="C251"/>
+      <c r="D251"/>
+      <c r="E251"/>
+      <c r="F251"/>
+      <c r="G251"/>
+      <c r="H251"/>
+      <c r="I251">
+        <v>0.96410321899999996</v>
+      </c>
+      <c r="J251"/>
+      <c r="K251"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1">
+        <v>45016</v>
+      </c>
+      <c r="B252" t="s">
+        <v>14</v>
+      </c>
+      <c r="C252"/>
+      <c r="D252"/>
+      <c r="E252"/>
+      <c r="F252"/>
+      <c r="G252"/>
+      <c r="H252"/>
+      <c r="I252">
+        <v>0.96750793599999996</v>
+      </c>
+      <c r="J252"/>
+      <c r="K252"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1">
+        <v>45016</v>
+      </c>
+      <c r="B253" t="s">
+        <v>11</v>
+      </c>
+      <c r="C253"/>
+      <c r="D253"/>
+      <c r="E253"/>
+      <c r="F253"/>
+      <c r="G253"/>
+      <c r="H253"/>
+      <c r="I253">
+        <v>0.91479838700000005</v>
+      </c>
+      <c r="J253"/>
+      <c r="K253"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1">
+        <v>45046</v>
+      </c>
+      <c r="B254" t="s">
+        <v>13</v>
+      </c>
+      <c r="C254"/>
+      <c r="D254"/>
+      <c r="E254"/>
+      <c r="F254"/>
+      <c r="G254"/>
+      <c r="H254"/>
+      <c r="I254">
+        <v>0.96707415200000002</v>
+      </c>
+      <c r="J254"/>
+      <c r="K254"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1">
+        <v>45046</v>
+      </c>
+      <c r="B255" t="s">
+        <v>14</v>
+      </c>
+      <c r="C255"/>
+      <c r="D255"/>
+      <c r="E255"/>
+      <c r="F255"/>
+      <c r="G255"/>
+      <c r="H255"/>
+      <c r="I255">
+        <v>0.96758181799999998</v>
+      </c>
+      <c r="J255"/>
+      <c r="K255"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1">
+        <v>45046</v>
+      </c>
+      <c r="B256" t="s">
+        <v>11</v>
+      </c>
+      <c r="C256"/>
+      <c r="D256"/>
+      <c r="E256"/>
+      <c r="F256"/>
+      <c r="G256"/>
+      <c r="H256"/>
+      <c r="I256">
+        <v>0.91106777699999997</v>
+      </c>
+      <c r="J256"/>
+      <c r="K256"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1">
+        <v>45046</v>
+      </c>
+      <c r="B257" t="s">
+        <v>12</v>
+      </c>
+      <c r="C257"/>
+      <c r="D257"/>
+      <c r="E257"/>
+      <c r="F257"/>
+      <c r="G257"/>
+      <c r="H257"/>
+      <c r="I257">
+        <v>0.96925515399999995</v>
+      </c>
+      <c r="J257"/>
+      <c r="K257"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B258" t="s">
+        <v>12</v>
+      </c>
+      <c r="C258"/>
+      <c r="D258"/>
+      <c r="E258"/>
+      <c r="F258"/>
+      <c r="G258"/>
+      <c r="H258"/>
+      <c r="I258">
+        <v>0.96528200799999997</v>
+      </c>
+      <c r="J258"/>
+      <c r="K258"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B259" t="s">
+        <v>11</v>
+      </c>
+      <c r="C259"/>
+      <c r="D259"/>
+      <c r="E259"/>
+      <c r="F259"/>
+      <c r="G259"/>
+      <c r="H259"/>
+      <c r="I259">
+        <v>0.91619673700000004</v>
+      </c>
+      <c r="J259"/>
+      <c r="K259"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B260" t="s">
+        <v>14</v>
+      </c>
+      <c r="C260"/>
+      <c r="D260"/>
+      <c r="E260"/>
+      <c r="F260"/>
+      <c r="G260"/>
+      <c r="H260"/>
+      <c r="I260">
+        <v>0.97207142800000002</v>
+      </c>
+      <c r="J260"/>
+      <c r="K260"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B261" t="s">
+        <v>13</v>
+      </c>
+      <c r="C261"/>
+      <c r="D261"/>
+      <c r="E261"/>
+      <c r="F261"/>
+      <c r="G261"/>
+      <c r="H261"/>
+      <c r="I261">
+        <v>0.96652859800000002</v>
+      </c>
+      <c r="J261"/>
+      <c r="K261"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B262" t="s">
+        <v>13</v>
+      </c>
+      <c r="C262"/>
+      <c r="D262"/>
+      <c r="E262"/>
+      <c r="F262"/>
+      <c r="G262"/>
+      <c r="H262"/>
+      <c r="I262">
+        <v>0.96687473700000004</v>
+      </c>
+      <c r="J262"/>
+      <c r="K262"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B263" t="s">
+        <v>12</v>
+      </c>
+      <c r="C263"/>
+      <c r="D263"/>
+      <c r="E263"/>
+      <c r="F263"/>
+      <c r="G263"/>
+      <c r="H263"/>
+      <c r="I263">
+        <v>0.96515969899999998</v>
+      </c>
+      <c r="J263"/>
+      <c r="K263"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B264" t="s">
+        <v>14</v>
+      </c>
+      <c r="C264"/>
+      <c r="D264"/>
+      <c r="E264"/>
+      <c r="F264"/>
+      <c r="G264"/>
+      <c r="H264"/>
+      <c r="I264">
+        <v>0.96082089500000001</v>
+      </c>
+      <c r="J264"/>
+      <c r="K264"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B265" t="s">
+        <v>11</v>
+      </c>
+      <c r="C265"/>
+      <c r="D265"/>
+      <c r="E265"/>
+      <c r="F265"/>
+      <c r="G265"/>
+      <c r="H265"/>
+      <c r="I265">
+        <v>0.92227388499999996</v>
+      </c>
+      <c r="J265"/>
+      <c r="K265"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1">
+        <v>45138</v>
+      </c>
+      <c r="B266" t="s">
+        <v>12</v>
+      </c>
+      <c r="C266"/>
+      <c r="D266"/>
+      <c r="E266"/>
+      <c r="F266"/>
+      <c r="G266"/>
+      <c r="H266"/>
+      <c r="I266">
+        <v>0.96355891199999999</v>
+      </c>
+      <c r="J266"/>
+      <c r="K266"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1">
+        <v>45138</v>
+      </c>
+      <c r="B267" t="s">
+        <v>11</v>
+      </c>
+      <c r="C267"/>
+      <c r="D267"/>
+      <c r="E267"/>
+      <c r="F267"/>
+      <c r="G267"/>
+      <c r="H267"/>
+      <c r="I267">
+        <v>0.92625997699999996</v>
+      </c>
+      <c r="J267"/>
+      <c r="K267"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1">
+        <v>45138</v>
+      </c>
+      <c r="B268" t="s">
+        <v>14</v>
+      </c>
+      <c r="C268"/>
+      <c r="D268"/>
+      <c r="E268"/>
+      <c r="F268"/>
+      <c r="G268"/>
+      <c r="H268"/>
+      <c r="I268">
+        <v>0.96738095199999996</v>
+      </c>
+      <c r="J268"/>
+      <c r="K268"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1">
+        <v>45138</v>
+      </c>
+      <c r="B269" t="s">
+        <v>13</v>
+      </c>
+      <c r="C269"/>
+      <c r="D269"/>
+      <c r="E269"/>
+      <c r="F269"/>
+      <c r="G269"/>
+      <c r="H269"/>
+      <c r="I269">
+        <v>0.96470546099999999</v>
+      </c>
+      <c r="J269"/>
+      <c r="K269"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B270" t="s">
+        <v>14</v>
+      </c>
+      <c r="C270"/>
+      <c r="D270"/>
+      <c r="E270"/>
+      <c r="F270"/>
+      <c r="G270"/>
+      <c r="H270"/>
+      <c r="I270">
+        <v>0.98523636299999995</v>
+      </c>
+      <c r="J270"/>
+      <c r="K270"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B271" t="s">
+        <v>11</v>
+      </c>
+      <c r="C271"/>
+      <c r="D271"/>
+      <c r="E271"/>
+      <c r="F271"/>
+      <c r="G271"/>
+      <c r="H271"/>
+      <c r="I271">
+        <v>0.92798128000000002</v>
+      </c>
+      <c r="J271"/>
+      <c r="K271"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B272" t="s">
+        <v>12</v>
+      </c>
+      <c r="C272"/>
+      <c r="D272"/>
+      <c r="E272"/>
+      <c r="F272"/>
+      <c r="G272"/>
+      <c r="H272"/>
+      <c r="I272">
+        <v>0.96396009599999999</v>
+      </c>
+      <c r="J272"/>
+      <c r="K272"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B273" t="s">
+        <v>13</v>
+      </c>
+      <c r="C273"/>
+      <c r="D273"/>
+      <c r="E273"/>
+      <c r="F273"/>
+      <c r="G273"/>
+      <c r="H273"/>
+      <c r="I273">
+        <v>0.96699284799999996</v>
+      </c>
+      <c r="J273"/>
+      <c r="K273"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1">
+        <v>45199</v>
+      </c>
+      <c r="B274" t="s">
+        <v>12</v>
+      </c>
+      <c r="C274"/>
+      <c r="D274"/>
+      <c r="E274"/>
+      <c r="F274"/>
+      <c r="G274"/>
+      <c r="H274"/>
+      <c r="I274">
+        <v>0.96312640400000005</v>
+      </c>
+      <c r="J274"/>
+      <c r="K274"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1">
+        <v>45199</v>
+      </c>
+      <c r="B275" t="s">
+        <v>11</v>
+      </c>
+      <c r="C275"/>
+      <c r="D275"/>
+      <c r="E275"/>
+      <c r="F275"/>
+      <c r="G275"/>
+      <c r="H275"/>
+      <c r="I275">
+        <v>0.92760958199999999</v>
+      </c>
+      <c r="J275"/>
+      <c r="K275"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1">
+        <v>45199</v>
+      </c>
+      <c r="B276" t="s">
+        <v>13</v>
+      </c>
+      <c r="C276"/>
+      <c r="D276"/>
+      <c r="E276"/>
+      <c r="F276"/>
+      <c r="G276"/>
+      <c r="H276"/>
+      <c r="I276">
+        <v>0.96438047100000002</v>
+      </c>
+      <c r="J276"/>
+      <c r="K276"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1">
+        <v>45199</v>
+      </c>
+      <c r="B277" t="s">
+        <v>14</v>
+      </c>
+      <c r="C277"/>
+      <c r="D277"/>
+      <c r="E277"/>
+      <c r="F277"/>
+      <c r="G277"/>
+      <c r="H277"/>
+      <c r="I277">
+        <v>0.99467272699999998</v>
+      </c>
+      <c r="J277"/>
+      <c r="K277"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1">
+        <v>45230</v>
+      </c>
+      <c r="B278" t="s">
+        <v>13</v>
+      </c>
+      <c r="C278"/>
+      <c r="D278"/>
+      <c r="E278"/>
+      <c r="F278"/>
+      <c r="G278"/>
+      <c r="H278"/>
+      <c r="I278">
+        <v>0.96300210600000002</v>
+      </c>
+      <c r="J278"/>
+      <c r="K278"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1">
+        <v>45230</v>
+      </c>
+      <c r="B279" t="s">
+        <v>11</v>
+      </c>
+      <c r="C279"/>
+      <c r="D279"/>
+      <c r="E279"/>
+      <c r="F279"/>
+      <c r="G279"/>
+      <c r="H279"/>
+      <c r="I279">
+        <v>0.93089069199999996</v>
+      </c>
+      <c r="J279"/>
+      <c r="K279"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1">
+        <v>45230</v>
+      </c>
+      <c r="B280" t="s">
+        <v>14</v>
+      </c>
+      <c r="C280"/>
+      <c r="D280"/>
+      <c r="E280"/>
+      <c r="F280"/>
+      <c r="G280"/>
+      <c r="H280"/>
+      <c r="I280">
+        <v>0.9599375</v>
+      </c>
+      <c r="J280"/>
+      <c r="K280"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1">
+        <v>45230</v>
+      </c>
+      <c r="B281" t="s">
+        <v>12</v>
+      </c>
+      <c r="C281"/>
+      <c r="D281"/>
+      <c r="E281"/>
+      <c r="F281"/>
+      <c r="G281"/>
+      <c r="H281"/>
+      <c r="I281">
+        <v>0.96046696600000003</v>
+      </c>
+      <c r="J281"/>
+      <c r="K281"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B282" t="s">
+        <v>12</v>
+      </c>
+      <c r="C282"/>
+      <c r="D282"/>
+      <c r="E282"/>
+      <c r="F282"/>
+      <c r="G282"/>
+      <c r="H282"/>
+      <c r="I282">
+        <v>0.962007575</v>
+      </c>
+      <c r="J282"/>
+      <c r="K282"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B283" t="s">
+        <v>13</v>
+      </c>
+      <c r="C283"/>
+      <c r="D283"/>
+      <c r="E283"/>
+      <c r="F283"/>
+      <c r="G283"/>
+      <c r="H283"/>
+      <c r="I283">
+        <v>0.96566613599999995</v>
+      </c>
+      <c r="J283"/>
+      <c r="K283"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B284" t="s">
+        <v>11</v>
+      </c>
+      <c r="C284"/>
+      <c r="D284"/>
+      <c r="E284"/>
+      <c r="F284"/>
+      <c r="G284"/>
+      <c r="H284"/>
+      <c r="I284">
+        <v>0.92696757399999996</v>
+      </c>
+      <c r="J284"/>
+      <c r="K284"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B285" t="s">
+        <v>14</v>
+      </c>
+      <c r="C285"/>
+      <c r="D285"/>
+      <c r="E285"/>
+      <c r="F285"/>
+      <c r="G285"/>
+      <c r="H285"/>
+      <c r="I285">
+        <v>0.95637499999999998</v>
+      </c>
+      <c r="J285"/>
+      <c r="K285"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1">
+        <v>45291</v>
+      </c>
+      <c r="B286" t="s">
+        <v>14</v>
+      </c>
+      <c r="C286"/>
+      <c r="D286"/>
+      <c r="E286"/>
+      <c r="F286"/>
+      <c r="G286"/>
+      <c r="H286"/>
+      <c r="I286">
+        <v>0.95044897900000003</v>
+      </c>
+      <c r="J286"/>
+      <c r="K286"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1">
+        <v>45291</v>
+      </c>
+      <c r="B287" t="s">
+        <v>13</v>
+      </c>
+      <c r="C287"/>
+      <c r="D287"/>
+      <c r="E287"/>
+      <c r="F287"/>
+      <c r="G287"/>
+      <c r="H287"/>
+      <c r="I287">
+        <v>0.96386830599999995</v>
+      </c>
+      <c r="J287"/>
+      <c r="K287"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1">
+        <v>45291</v>
+      </c>
+      <c r="B288" t="s">
+        <v>12</v>
+      </c>
+      <c r="C288"/>
+      <c r="D288"/>
+      <c r="E288"/>
+      <c r="F288"/>
+      <c r="G288"/>
+      <c r="H288"/>
+      <c r="I288">
+        <v>0.958810897</v>
+      </c>
+      <c r="J288"/>
+      <c r="K288"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1">
+        <v>45291</v>
+      </c>
+      <c r="B289" t="s">
+        <v>11</v>
+      </c>
+      <c r="C289"/>
+      <c r="D289"/>
+      <c r="E289"/>
+      <c r="F289"/>
+      <c r="G289"/>
+      <c r="H289"/>
+      <c r="I289">
+        <v>0.91931818099999996</v>
+      </c>
+      <c r="J289"/>
+      <c r="K289"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B290" t="s">
+        <v>13</v>
+      </c>
+      <c r="C290"/>
+      <c r="D290"/>
+      <c r="E290"/>
+      <c r="F290"/>
+      <c r="G290"/>
+      <c r="H290"/>
+      <c r="I290">
+        <v>0.95922320599999999</v>
+      </c>
+      <c r="J290"/>
+      <c r="K290"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B291" t="s">
+        <v>11</v>
+      </c>
+      <c r="C291"/>
+      <c r="D291"/>
+      <c r="E291"/>
+      <c r="F291"/>
+      <c r="G291"/>
+      <c r="H291"/>
+      <c r="I291">
+        <v>0.92394938400000004</v>
+      </c>
+      <c r="J291"/>
+      <c r="K291"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B292" t="s">
+        <v>12</v>
+      </c>
+      <c r="C292"/>
+      <c r="D292"/>
+      <c r="E292"/>
+      <c r="F292"/>
+      <c r="G292"/>
+      <c r="H292"/>
+      <c r="I292">
+        <v>0.95748739400000005</v>
+      </c>
+      <c r="J292"/>
+      <c r="K292"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B293" t="s">
+        <v>14</v>
+      </c>
+      <c r="C293"/>
+      <c r="D293"/>
+      <c r="E293"/>
+      <c r="F293"/>
+      <c r="G293"/>
+      <c r="H293"/>
+      <c r="I293">
+        <v>0.96397058800000002</v>
+      </c>
+      <c r="J293"/>
+      <c r="K293"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B294" t="s">
+        <v>13</v>
+      </c>
+      <c r="C294"/>
+      <c r="D294"/>
+      <c r="E294"/>
+      <c r="F294"/>
+      <c r="G294"/>
+      <c r="H294"/>
+      <c r="I294">
+        <v>0.962743444</v>
+      </c>
+      <c r="J294"/>
+      <c r="K294"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B295" t="s">
+        <v>11</v>
+      </c>
+      <c r="C295"/>
+      <c r="D295"/>
+      <c r="E295"/>
+      <c r="F295"/>
+      <c r="G295"/>
+      <c r="H295"/>
+      <c r="I295">
+        <v>0.92734846599999998</v>
+      </c>
+      <c r="J295"/>
+      <c r="K295"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B296" t="s">
+        <v>12</v>
+      </c>
+      <c r="C296"/>
+      <c r="D296"/>
+      <c r="E296"/>
+      <c r="F296"/>
+      <c r="G296"/>
+      <c r="H296"/>
+      <c r="I296">
+        <v>0.95856695800000002</v>
+      </c>
+      <c r="J296"/>
+      <c r="K296"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B297" t="s">
+        <v>14</v>
+      </c>
+      <c r="C297"/>
+      <c r="D297"/>
+      <c r="E297"/>
+      <c r="F297"/>
+      <c r="G297"/>
+      <c r="H297"/>
+      <c r="I297">
+        <v>0.96551219499999996</v>
+      </c>
+      <c r="J297"/>
+      <c r="K297"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B298" t="s">
+        <v>12</v>
+      </c>
+      <c r="C298"/>
+      <c r="D298"/>
+      <c r="E298"/>
+      <c r="F298"/>
+      <c r="G298"/>
+      <c r="H298"/>
+      <c r="I298">
+        <v>0.95751562499999998</v>
+      </c>
+      <c r="J298"/>
+      <c r="K298"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B299" t="s">
+        <v>14</v>
+      </c>
+      <c r="C299"/>
+      <c r="D299"/>
+      <c r="E299"/>
+      <c r="F299"/>
+      <c r="G299"/>
+      <c r="H299"/>
+      <c r="I299">
+        <v>0.97124999999999995</v>
+      </c>
+      <c r="J299"/>
+      <c r="K299"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B300" t="s">
+        <v>13</v>
+      </c>
+      <c r="C300"/>
+      <c r="D300"/>
+      <c r="E300"/>
+      <c r="F300"/>
+      <c r="G300"/>
+      <c r="H300"/>
+      <c r="I300">
+        <v>0.96344691299999996</v>
+      </c>
+      <c r="J300"/>
+      <c r="K300"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B301" t="s">
+        <v>11</v>
+      </c>
+      <c r="C301"/>
+      <c r="D301"/>
+      <c r="E301"/>
+      <c r="F301"/>
+      <c r="G301"/>
+      <c r="H301"/>
+      <c r="I301">
+        <v>0.92477834000000003</v>
+      </c>
+      <c r="J301"/>
+      <c r="K301"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B302" t="s">
+        <v>13</v>
+      </c>
+      <c r="C302"/>
+      <c r="D302"/>
+      <c r="E302"/>
+      <c r="F302"/>
+      <c r="G302"/>
+      <c r="H302"/>
+      <c r="I302">
+        <v>0.96306993600000002</v>
+      </c>
+      <c r="J302"/>
+      <c r="K302"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B303" t="s">
+        <v>11</v>
+      </c>
+      <c r="C303"/>
+      <c r="D303"/>
+      <c r="E303"/>
+      <c r="F303"/>
+      <c r="G303"/>
+      <c r="H303"/>
+      <c r="I303">
+        <v>0.93498967799999999</v>
+      </c>
+      <c r="J303"/>
+      <c r="K303"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B304" t="s">
+        <v>14</v>
+      </c>
+      <c r="C304"/>
+      <c r="D304"/>
+      <c r="E304"/>
+      <c r="F304"/>
+      <c r="G304"/>
+      <c r="H304"/>
+      <c r="I304">
+        <v>0.96357142799999995</v>
+      </c>
+      <c r="J304"/>
+      <c r="K304"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B305" t="s">
+        <v>12</v>
+      </c>
+      <c r="C305"/>
+      <c r="D305"/>
+      <c r="E305"/>
+      <c r="F305"/>
+      <c r="G305"/>
+      <c r="H305"/>
+      <c r="I305">
+        <v>0.95866385799999998</v>
+      </c>
+      <c r="J305"/>
+      <c r="K305"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B306" t="s">
+        <v>13</v>
+      </c>
+      <c r="C306"/>
+      <c r="D306"/>
+      <c r="E306"/>
+      <c r="F306"/>
+      <c r="G306"/>
+      <c r="H306"/>
+      <c r="I306">
+        <v>0.96343756000000003</v>
+      </c>
+      <c r="J306"/>
+      <c r="K306"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B307" t="s">
+        <v>11</v>
+      </c>
+      <c r="C307"/>
+      <c r="D307"/>
+      <c r="E307"/>
+      <c r="F307"/>
+      <c r="G307"/>
+      <c r="H307"/>
+      <c r="I307">
+        <v>0.92238195099999998</v>
+      </c>
+      <c r="J307"/>
+      <c r="K307"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B308" t="s">
+        <v>12</v>
+      </c>
+      <c r="C308"/>
+      <c r="D308"/>
+      <c r="E308"/>
+      <c r="F308"/>
+      <c r="G308"/>
+      <c r="H308"/>
+      <c r="I308">
+        <v>0.954478983</v>
+      </c>
+      <c r="J308"/>
+      <c r="K308"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B309" t="s">
+        <v>14</v>
+      </c>
+      <c r="C309"/>
+      <c r="D309"/>
+      <c r="E309"/>
+      <c r="F309"/>
+      <c r="G309"/>
+      <c r="H309"/>
+      <c r="I309">
+        <v>0.96641790999999999</v>
+      </c>
+      <c r="J309"/>
+      <c r="K309"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="1">
+        <v>45473</v>
+      </c>
+      <c r="B310" t="s">
+        <v>14</v>
+      </c>
+      <c r="C310"/>
+      <c r="D310"/>
+      <c r="E310"/>
+      <c r="F310"/>
+      <c r="G310"/>
+      <c r="H310"/>
+      <c r="I310">
+        <v>0.97458823500000002</v>
+      </c>
+      <c r="J310"/>
+      <c r="K310"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="1">
+        <v>45473</v>
+      </c>
+      <c r="B311" t="s">
+        <v>11</v>
+      </c>
+      <c r="C311"/>
+      <c r="D311"/>
+      <c r="E311"/>
+      <c r="F311"/>
+      <c r="G311"/>
+      <c r="H311"/>
+      <c r="I311">
+        <v>0.92043669900000002</v>
+      </c>
+      <c r="J311"/>
+      <c r="K311"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="1">
+        <v>45473</v>
+      </c>
+      <c r="B312" t="s">
+        <v>12</v>
+      </c>
+      <c r="C312"/>
+      <c r="D312"/>
+      <c r="E312"/>
+      <c r="F312"/>
+      <c r="G312"/>
+      <c r="H312"/>
+      <c r="I312">
+        <v>0.94964089100000004</v>
+      </c>
+      <c r="J312"/>
+      <c r="K312"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="1">
+        <v>45473</v>
+      </c>
+      <c r="B313" t="s">
+        <v>13</v>
+      </c>
+      <c r="C313"/>
+      <c r="D313"/>
+      <c r="E313"/>
+      <c r="F313"/>
+      <c r="G313"/>
+      <c r="H313"/>
+      <c r="I313">
+        <v>0.96196896899999995</v>
+      </c>
+      <c r="J313"/>
+      <c r="K313"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B314" t="s">
+        <v>12</v>
+      </c>
+      <c r="C314"/>
+      <c r="D314"/>
+      <c r="E314"/>
+      <c r="F314"/>
+      <c r="G314"/>
+      <c r="H314"/>
+      <c r="I314">
+        <v>0.94915046999999997</v>
+      </c>
+      <c r="J314"/>
+      <c r="K314"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B315" t="s">
+        <v>13</v>
+      </c>
+      <c r="C315"/>
+      <c r="D315"/>
+      <c r="E315"/>
+      <c r="F315"/>
+      <c r="G315"/>
+      <c r="H315"/>
+      <c r="I315">
+        <v>0.964105459</v>
+      </c>
+      <c r="J315"/>
+      <c r="K315"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B316" t="s">
+        <v>11</v>
+      </c>
+      <c r="C316"/>
+      <c r="D316"/>
+      <c r="E316"/>
+      <c r="F316"/>
+      <c r="G316"/>
+      <c r="H316"/>
+      <c r="I316">
+        <v>0.91891571400000005</v>
+      </c>
+      <c r="J316"/>
+      <c r="K316"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B317" t="s">
+        <v>14</v>
+      </c>
+      <c r="C317"/>
+      <c r="D317"/>
+      <c r="E317"/>
+      <c r="F317"/>
+      <c r="G317"/>
+      <c r="H317"/>
+      <c r="I317">
+        <v>0.99887037000000001</v>
+      </c>
+      <c r="J317"/>
+      <c r="K317"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1">
+        <v>45535</v>
+      </c>
+      <c r="B318" t="s">
+        <v>14</v>
+      </c>
+      <c r="C318"/>
+      <c r="D318"/>
+      <c r="E318"/>
+      <c r="F318"/>
+      <c r="G318"/>
+      <c r="H318"/>
+      <c r="I318">
+        <v>0.971518518</v>
+      </c>
+      <c r="J318"/>
+      <c r="K318"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1">
+        <v>45535</v>
+      </c>
+      <c r="B319" t="s">
+        <v>11</v>
+      </c>
+      <c r="C319"/>
+      <c r="D319"/>
+      <c r="E319"/>
+      <c r="F319"/>
+      <c r="G319"/>
+      <c r="H319"/>
+      <c r="I319">
+        <v>0.91786734599999997</v>
+      </c>
+      <c r="J319"/>
+      <c r="K319"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1">
+        <v>45535</v>
+      </c>
+      <c r="B320" t="s">
+        <v>12</v>
+      </c>
+      <c r="C320"/>
+      <c r="D320"/>
+      <c r="E320"/>
+      <c r="F320"/>
+      <c r="G320"/>
+      <c r="H320"/>
+      <c r="I320">
+        <v>0.95015508800000004</v>
+      </c>
+      <c r="J320"/>
+      <c r="K320"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1">
+        <v>45535</v>
+      </c>
+      <c r="B321" t="s">
+        <v>13</v>
+      </c>
+      <c r="C321"/>
+      <c r="D321"/>
+      <c r="E321"/>
+      <c r="F321"/>
+      <c r="G321"/>
+      <c r="H321"/>
+      <c r="I321">
+        <v>0.96486247599999997</v>
+      </c>
+      <c r="J321"/>
+      <c r="K321"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B322" t="s">
+        <v>13</v>
+      </c>
+      <c r="C322"/>
+      <c r="D322"/>
+      <c r="E322"/>
+      <c r="F322"/>
+      <c r="G322"/>
+      <c r="H322"/>
+      <c r="I322">
+        <v>0.96490344299999997</v>
+      </c>
+      <c r="J322"/>
+      <c r="K322"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B323" t="s">
+        <v>14</v>
+      </c>
+      <c r="C323"/>
+      <c r="D323"/>
+      <c r="E323"/>
+      <c r="F323"/>
+      <c r="G323"/>
+      <c r="H323"/>
+      <c r="I323">
+        <v>0.96566666599999995</v>
+      </c>
+      <c r="J323"/>
+      <c r="K323"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B324" t="s">
+        <v>12</v>
+      </c>
+      <c r="C324"/>
+      <c r="D324"/>
+      <c r="E324"/>
+      <c r="F324"/>
+      <c r="G324"/>
+      <c r="H324"/>
+      <c r="I324">
+        <v>0.94917679499999996</v>
+      </c>
+      <c r="J324"/>
+      <c r="K324"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B325" t="s">
+        <v>11</v>
+      </c>
+      <c r="C325"/>
+      <c r="D325"/>
+      <c r="E325"/>
+      <c r="F325"/>
+      <c r="G325"/>
+      <c r="H325"/>
+      <c r="I325">
+        <v>0.91874384200000003</v>
+      </c>
+      <c r="J325"/>
+      <c r="K325"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1">
+        <v>45596</v>
+      </c>
+      <c r="B326" t="s">
+        <v>13</v>
+      </c>
+      <c r="C326"/>
+      <c r="D326"/>
+      <c r="E326"/>
+      <c r="F326"/>
+      <c r="G326"/>
+      <c r="H326"/>
+      <c r="I326">
+        <v>0.96098466500000002</v>
+      </c>
+      <c r="J326"/>
+      <c r="K326"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1">
+        <v>45596</v>
+      </c>
+      <c r="B327" t="s">
+        <v>12</v>
+      </c>
+      <c r="C327"/>
+      <c r="D327"/>
+      <c r="E327"/>
+      <c r="F327"/>
+      <c r="G327"/>
+      <c r="H327"/>
+      <c r="I327">
+        <v>0.94961730700000002</v>
+      </c>
+      <c r="J327"/>
+      <c r="K327"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1">
+        <v>45596</v>
+      </c>
+      <c r="B328" t="s">
+        <v>11</v>
+      </c>
+      <c r="C328"/>
+      <c r="D328"/>
+      <c r="E328"/>
+      <c r="F328"/>
+      <c r="G328"/>
+      <c r="H328"/>
+      <c r="I328">
+        <v>0.92307755700000005</v>
+      </c>
+      <c r="J328"/>
+      <c r="K328"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1">
+        <v>45596</v>
+      </c>
+      <c r="B329" t="s">
+        <v>14</v>
+      </c>
+      <c r="C329"/>
+      <c r="D329"/>
+      <c r="E329"/>
+      <c r="F329"/>
+      <c r="G329"/>
+      <c r="H329"/>
+      <c r="I329">
+        <v>0.98579069699999999</v>
+      </c>
+      <c r="J329"/>
+      <c r="K329"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1">
+        <v>45626</v>
+      </c>
+      <c r="B330" t="s">
+        <v>14</v>
+      </c>
+      <c r="C330"/>
+      <c r="D330"/>
+      <c r="E330"/>
+      <c r="F330"/>
+      <c r="G330"/>
+      <c r="H330"/>
+      <c r="I330">
+        <v>0.96657894700000002</v>
+      </c>
+      <c r="J330"/>
+      <c r="K330"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1">
+        <v>45626</v>
+      </c>
+      <c r="B331" t="s">
+        <v>12</v>
+      </c>
+      <c r="C331"/>
+      <c r="D331"/>
+      <c r="E331"/>
+      <c r="F331"/>
+      <c r="G331"/>
+      <c r="H331"/>
+      <c r="I331">
+        <v>0.94401605499999997</v>
+      </c>
+      <c r="J331"/>
+      <c r="K331"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1">
+        <v>45626</v>
+      </c>
+      <c r="B332" t="s">
+        <v>13</v>
+      </c>
+      <c r="C332"/>
+      <c r="D332"/>
+      <c r="E332"/>
+      <c r="F332"/>
+      <c r="G332"/>
+      <c r="H332"/>
+      <c r="I332">
+        <v>0.95888720500000002</v>
+      </c>
+      <c r="J332"/>
+      <c r="K332"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="1">
+        <v>45626</v>
+      </c>
+      <c r="B333" t="s">
+        <v>11</v>
+      </c>
+      <c r="C333"/>
+      <c r="D333"/>
+      <c r="E333"/>
+      <c r="F333"/>
+      <c r="G333"/>
+      <c r="H333"/>
+      <c r="I333">
+        <v>0.91128600800000004</v>
+      </c>
+      <c r="J333"/>
+      <c r="K333"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B334" t="s">
+        <v>12</v>
+      </c>
+      <c r="C334"/>
+      <c r="D334"/>
+      <c r="E334"/>
+      <c r="F334"/>
+      <c r="G334"/>
+      <c r="H334"/>
+      <c r="I334">
+        <v>0.94864330200000002</v>
+      </c>
+      <c r="J334"/>
+      <c r="K334"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B335" t="s">
+        <v>11</v>
+      </c>
+      <c r="C335"/>
+      <c r="D335"/>
+      <c r="E335"/>
+      <c r="F335"/>
+      <c r="G335"/>
+      <c r="H335"/>
+      <c r="I335">
+        <v>0.919828125</v>
+      </c>
+      <c r="J335"/>
+      <c r="K335"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B336" t="s">
+        <v>14</v>
+      </c>
+      <c r="C336"/>
+      <c r="D336"/>
+      <c r="E336"/>
+      <c r="F336"/>
+      <c r="G336"/>
+      <c r="H336"/>
+      <c r="I336">
+        <v>0.95437837800000003</v>
+      </c>
+      <c r="J336"/>
+      <c r="K336"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B337" t="s">
+        <v>13</v>
+      </c>
+      <c r="C337"/>
+      <c r="D337"/>
+      <c r="E337"/>
+      <c r="F337"/>
+      <c r="G337"/>
+      <c r="H337"/>
+      <c r="I337">
+        <v>0.959159651</v>
+      </c>
+      <c r="J337"/>
+      <c r="K337"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B338" t="s">
+        <v>14</v>
+      </c>
+      <c r="C338"/>
+      <c r="D338"/>
+      <c r="E338"/>
+      <c r="F338"/>
+      <c r="G338"/>
+      <c r="H338"/>
+      <c r="I338">
+        <v>0.96731250000000002</v>
+      </c>
+      <c r="J338"/>
+      <c r="K338"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B339" t="s">
+        <v>13</v>
+      </c>
+      <c r="C339"/>
+      <c r="D339"/>
+      <c r="E339"/>
+      <c r="F339"/>
+      <c r="G339"/>
+      <c r="H339"/>
+      <c r="I339">
+        <v>0.95851715400000004</v>
+      </c>
+      <c r="J339"/>
+      <c r="K339"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B340" t="s">
+        <v>12</v>
+      </c>
+      <c r="C340"/>
+      <c r="D340"/>
+      <c r="E340"/>
+      <c r="F340"/>
+      <c r="G340"/>
+      <c r="H340"/>
+      <c r="I340">
+        <v>0.94677738499999997</v>
+      </c>
+      <c r="J340"/>
+      <c r="K340"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B341" t="s">
+        <v>11</v>
+      </c>
+      <c r="C341"/>
+      <c r="D341"/>
+      <c r="E341"/>
+      <c r="F341"/>
+      <c r="G341"/>
+      <c r="H341"/>
+      <c r="I341">
+        <v>0.903541818</v>
+      </c>
+      <c r="J341"/>
+      <c r="K341"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1">
+        <v>45716</v>
+      </c>
+      <c r="B342" t="s">
+        <v>12</v>
+      </c>
+      <c r="C342"/>
+      <c r="D342"/>
+      <c r="E342"/>
+      <c r="F342"/>
+      <c r="G342"/>
+      <c r="H342"/>
+      <c r="I342">
+        <v>0.946762204</v>
+      </c>
+      <c r="J342"/>
+      <c r="K342"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1">
+        <v>45716</v>
+      </c>
+      <c r="B343" t="s">
+        <v>11</v>
+      </c>
+      <c r="C343"/>
+      <c r="D343"/>
+      <c r="E343"/>
+      <c r="F343"/>
+      <c r="G343"/>
+      <c r="H343"/>
+      <c r="I343">
+        <v>0.91118285700000001</v>
+      </c>
+      <c r="J343"/>
+      <c r="K343"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="1">
+        <v>45716</v>
+      </c>
+      <c r="B344" t="s">
+        <v>13</v>
+      </c>
+      <c r="C344"/>
+      <c r="D344"/>
+      <c r="E344"/>
+      <c r="F344"/>
+      <c r="G344"/>
+      <c r="H344"/>
+      <c r="I344">
+        <v>0.95488026599999998</v>
+      </c>
+      <c r="J344"/>
+      <c r="K344"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="1">
+        <v>45716</v>
+      </c>
+      <c r="B345" t="s">
+        <v>14</v>
+      </c>
+      <c r="C345"/>
+      <c r="D345"/>
+      <c r="E345"/>
+      <c r="F345"/>
+      <c r="G345"/>
+      <c r="H345"/>
+      <c r="I345">
+        <v>0.95720588200000001</v>
+      </c>
+      <c r="J345"/>
+      <c r="K345"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B346" t="s">
+        <v>14</v>
+      </c>
+      <c r="C346"/>
+      <c r="D346"/>
+      <c r="E346"/>
+      <c r="F346"/>
+      <c r="G346"/>
+      <c r="H346"/>
+      <c r="I346">
+        <v>0.94317021199999995</v>
+      </c>
+      <c r="J346"/>
+      <c r="K346"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B347" t="s">
+        <v>11</v>
+      </c>
+      <c r="C347"/>
+      <c r="D347"/>
+      <c r="E347"/>
+      <c r="F347"/>
+      <c r="G347"/>
+      <c r="H347"/>
+      <c r="I347">
+        <v>0.90342857099999996</v>
+      </c>
+      <c r="J347"/>
+      <c r="K347"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B348" t="s">
+        <v>13</v>
+      </c>
+      <c r="C348"/>
+      <c r="D348"/>
+      <c r="E348"/>
+      <c r="F348"/>
+      <c r="G348"/>
+      <c r="H348"/>
+      <c r="I348">
+        <v>0.95963664999999998</v>
+      </c>
+      <c r="J348"/>
+      <c r="K348"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B349" t="s">
+        <v>12</v>
+      </c>
+      <c r="C349"/>
+      <c r="D349"/>
+      <c r="E349"/>
+      <c r="F349"/>
+      <c r="G349"/>
+      <c r="H349"/>
+      <c r="I349">
+        <v>0.94697619</v>
+      </c>
+      <c r="J349"/>
+      <c r="K349"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="1">
+        <v>45777</v>
+      </c>
+      <c r="B350" t="s">
+        <v>12</v>
+      </c>
+      <c r="C350"/>
+      <c r="D350"/>
+      <c r="E350"/>
+      <c r="F350"/>
+      <c r="G350"/>
+      <c r="H350"/>
+      <c r="I350">
+        <v>0.94217399599999996</v>
+      </c>
+      <c r="J350"/>
+      <c r="K350"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="1">
+        <v>45777</v>
+      </c>
+      <c r="B351" t="s">
+        <v>14</v>
+      </c>
+      <c r="C351"/>
+      <c r="D351"/>
+      <c r="E351"/>
+      <c r="F351"/>
+      <c r="G351"/>
+      <c r="H351"/>
+      <c r="I351">
+        <v>0.94992063400000004</v>
+      </c>
+      <c r="J351"/>
+      <c r="K351"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="1">
+        <v>45777</v>
+      </c>
+      <c r="B352" t="s">
+        <v>11</v>
+      </c>
+      <c r="C352"/>
+      <c r="D352"/>
+      <c r="E352"/>
+      <c r="F352"/>
+      <c r="G352"/>
+      <c r="H352"/>
+      <c r="I352">
+        <v>0.90862605699999999</v>
+      </c>
+      <c r="J352"/>
+      <c r="K352"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="1">
+        <v>45777</v>
+      </c>
+      <c r="B353" t="s">
+        <v>13</v>
+      </c>
+      <c r="C353"/>
+      <c r="D353"/>
+      <c r="E353"/>
+      <c r="F353"/>
+      <c r="G353"/>
+      <c r="H353"/>
+      <c r="I353">
+        <v>0.95623022599999996</v>
+      </c>
+      <c r="J353"/>
+      <c r="K353"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="1">
+        <v>45808</v>
+      </c>
+      <c r="B354" t="s">
+        <v>12</v>
+      </c>
+      <c r="C354"/>
+      <c r="D354"/>
+      <c r="E354"/>
+      <c r="F354"/>
+      <c r="G354"/>
+      <c r="H354"/>
+      <c r="I354">
+        <v>0.94009731500000004</v>
+      </c>
+      <c r="J354"/>
+      <c r="K354"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1">
+        <v>45808</v>
+      </c>
+      <c r="B355" t="s">
+        <v>14</v>
+      </c>
+      <c r="C355"/>
+      <c r="D355"/>
+      <c r="E355"/>
+      <c r="F355"/>
+      <c r="G355"/>
+      <c r="H355"/>
+      <c r="I355">
+        <v>0.95992857099999995</v>
+      </c>
+      <c r="J355"/>
+      <c r="K355"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1">
+        <v>45808</v>
+      </c>
+      <c r="B356" t="s">
+        <v>13</v>
+      </c>
+      <c r="C356"/>
+      <c r="D356"/>
+      <c r="E356"/>
+      <c r="F356"/>
+      <c r="G356"/>
+      <c r="H356"/>
+      <c r="I356">
+        <v>0.95920682599999996</v>
+      </c>
+      <c r="J356"/>
+      <c r="K356"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1">
+        <v>45808</v>
+      </c>
+      <c r="B357" t="s">
+        <v>11</v>
+      </c>
+      <c r="C357"/>
+      <c r="D357"/>
+      <c r="E357"/>
+      <c r="F357"/>
+      <c r="G357"/>
+      <c r="H357"/>
+      <c r="I357">
+        <v>0.91146435100000001</v>
+      </c>
+      <c r="J357"/>
+      <c r="K357"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B358" t="s">
+        <v>13</v>
+      </c>
+      <c r="C358"/>
+      <c r="D358"/>
+      <c r="E358"/>
+      <c r="F358"/>
+      <c r="G358"/>
+      <c r="H358"/>
+      <c r="I358">
+        <v>0.95419936699999996</v>
+      </c>
+      <c r="J358"/>
+      <c r="K358"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B359" t="s">
+        <v>11</v>
+      </c>
+      <c r="C359"/>
+      <c r="D359"/>
+      <c r="E359"/>
+      <c r="F359"/>
+      <c r="G359"/>
+      <c r="H359"/>
+      <c r="I359">
+        <v>0.89411320699999997</v>
+      </c>
+      <c r="J359"/>
+      <c r="K359"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B360" t="s">
+        <v>12</v>
+      </c>
+      <c r="C360"/>
+      <c r="D360"/>
+      <c r="E360"/>
+      <c r="F360"/>
+      <c r="G360"/>
+      <c r="H360"/>
+      <c r="I360">
+        <v>0.93863945500000001</v>
+      </c>
+      <c r="J360"/>
+      <c r="K360"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B361" t="s">
+        <v>14</v>
+      </c>
+      <c r="C361"/>
+      <c r="D361"/>
+      <c r="E361"/>
+      <c r="F361"/>
+      <c r="G361"/>
+      <c r="H361"/>
+      <c r="I361">
+        <v>0.94921739100000002</v>
+      </c>
+      <c r="J361"/>
+      <c r="K361"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B362" t="s">
+        <v>11</v>
+      </c>
+      <c r="C362"/>
+      <c r="D362"/>
+      <c r="E362"/>
+      <c r="F362"/>
+      <c r="G362"/>
+      <c r="H362"/>
+      <c r="I362">
+        <v>0.89860341099999996</v>
+      </c>
+      <c r="J362"/>
+      <c r="K362"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B363" t="s">
+        <v>13</v>
+      </c>
+      <c r="C363"/>
+      <c r="D363"/>
+      <c r="E363"/>
+      <c r="F363"/>
+      <c r="G363"/>
+      <c r="H363"/>
+      <c r="I363">
+        <v>0.95386493000000006</v>
+      </c>
+      <c r="J363"/>
+      <c r="K363"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B364" t="s">
+        <v>14</v>
+      </c>
+      <c r="C364"/>
+      <c r="D364"/>
+      <c r="E364"/>
+      <c r="F364"/>
+      <c r="G364"/>
+      <c r="H364"/>
+      <c r="I364">
+        <v>0.960809523</v>
+      </c>
+      <c r="J364"/>
+      <c r="K364"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B365" t="s">
+        <v>12</v>
+      </c>
+      <c r="C365"/>
+      <c r="D365"/>
+      <c r="E365"/>
+      <c r="F365"/>
+      <c r="G365"/>
+      <c r="H365"/>
+      <c r="I365">
+        <v>0.93528169000000005</v>
+      </c>
+      <c r="J365"/>
+      <c r="K365"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1">
+        <v>45900</v>
+      </c>
+      <c r="B366" t="s">
+        <v>14</v>
+      </c>
+      <c r="C366"/>
+      <c r="D366"/>
+      <c r="E366"/>
+      <c r="F366"/>
+      <c r="G366"/>
+      <c r="H366"/>
+      <c r="I366">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="J366"/>
+      <c r="K366"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1">
+        <v>45900</v>
+      </c>
+      <c r="B367" t="s">
+        <v>12</v>
+      </c>
+      <c r="C367"/>
+      <c r="D367"/>
+      <c r="E367"/>
+      <c r="F367"/>
+      <c r="G367"/>
+      <c r="H367"/>
+      <c r="I367">
+        <v>0.937155038</v>
+      </c>
+      <c r="J367"/>
+      <c r="K367"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1">
+        <v>45900</v>
+      </c>
+      <c r="B368" t="s">
+        <v>11</v>
+      </c>
+      <c r="C368"/>
+      <c r="D368"/>
+      <c r="E368"/>
+      <c r="F368"/>
+      <c r="G368"/>
+      <c r="H368"/>
+      <c r="I368">
+        <v>0.89799036099999996</v>
+      </c>
+      <c r="J368"/>
+      <c r="K368"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1">
+        <v>45900</v>
+      </c>
+      <c r="B369" t="s">
+        <v>13</v>
+      </c>
+      <c r="C369"/>
+      <c r="D369"/>
+      <c r="E369"/>
+      <c r="F369"/>
+      <c r="G369"/>
+      <c r="H369"/>
+      <c r="I369">
+        <v>0.95646421699999995</v>
+      </c>
+      <c r="J369"/>
+      <c r="K369"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1">
+        <v>45930</v>
+      </c>
+      <c r="B370" t="s">
+        <v>11</v>
+      </c>
+      <c r="C370"/>
+      <c r="D370"/>
+      <c r="E370"/>
+      <c r="F370"/>
+      <c r="G370"/>
+      <c r="H370"/>
+      <c r="I370">
+        <v>0.89852438999999995</v>
+      </c>
+      <c r="J370"/>
+      <c r="K370"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1">
+        <v>45930</v>
+      </c>
+      <c r="B371" t="s">
+        <v>14</v>
+      </c>
+      <c r="C371"/>
+      <c r="D371"/>
+      <c r="E371"/>
+      <c r="F371"/>
+      <c r="G371"/>
+      <c r="H371"/>
+      <c r="I371">
+        <v>0.96670689600000004</v>
+      </c>
+      <c r="J371"/>
+      <c r="K371"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1">
+        <v>45930</v>
+      </c>
+      <c r="B372" t="s">
+        <v>13</v>
+      </c>
+      <c r="C372"/>
+      <c r="D372"/>
+      <c r="E372"/>
+      <c r="F372"/>
+      <c r="G372"/>
+      <c r="H372"/>
+      <c r="I372">
+        <v>0.95521713500000005</v>
+      </c>
+      <c r="J372"/>
+      <c r="K372"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1">
+        <v>45930</v>
+      </c>
+      <c r="B373" t="s">
+        <v>12</v>
+      </c>
+      <c r="C373"/>
+      <c r="D373"/>
+      <c r="E373"/>
+      <c r="F373"/>
+      <c r="G373"/>
+      <c r="H373"/>
+      <c r="I373">
+        <v>0.93580511099999997</v>
+      </c>
+      <c r="J373"/>
+      <c r="K373"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B374" t="s">
+        <v>14</v>
+      </c>
+      <c r="C374"/>
+      <c r="D374"/>
+      <c r="E374"/>
+      <c r="F374"/>
+      <c r="G374"/>
+      <c r="H374"/>
+      <c r="I374">
+        <v>0.96409374999999997</v>
+      </c>
+      <c r="J374"/>
+      <c r="K374"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B375" t="s">
+        <v>12</v>
+      </c>
+      <c r="C375"/>
+      <c r="D375"/>
+      <c r="E375"/>
+      <c r="F375"/>
+      <c r="G375"/>
+      <c r="H375"/>
+      <c r="I375">
+        <v>0.939681137</v>
+      </c>
+      <c r="J375"/>
+      <c r="K375"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B376" t="s">
+        <v>11</v>
+      </c>
+      <c r="C376"/>
+      <c r="D376"/>
+      <c r="E376"/>
+      <c r="F376"/>
+      <c r="G376"/>
+      <c r="H376"/>
+      <c r="I376">
+        <v>0.89209547700000003</v>
+      </c>
+      <c r="J376"/>
+      <c r="K376"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B377" t="s">
+        <v>13</v>
+      </c>
+      <c r="C377"/>
+      <c r="D377"/>
+      <c r="E377"/>
+      <c r="F377"/>
+      <c r="G377"/>
+      <c r="H377"/>
+      <c r="I377">
+        <v>0.955836044</v>
+      </c>
+      <c r="J377"/>
+      <c r="K377"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1">
+        <v>45991</v>
+      </c>
+      <c r="B378" t="s">
+        <v>14</v>
+      </c>
+      <c r="C378"/>
+      <c r="D378"/>
+      <c r="E378"/>
+      <c r="F378"/>
+      <c r="G378"/>
+      <c r="H378"/>
+      <c r="I378">
+        <v>0.94870270199999995</v>
+      </c>
+      <c r="J378"/>
+      <c r="K378"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1">
+        <v>45991</v>
+      </c>
+      <c r="B379" t="s">
+        <v>11</v>
+      </c>
+      <c r="C379"/>
+      <c r="D379"/>
+      <c r="E379"/>
+      <c r="F379"/>
+      <c r="G379"/>
+      <c r="H379"/>
+      <c r="I379">
+        <v>0.89155472599999996</v>
+      </c>
+      <c r="J379"/>
+      <c r="K379"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="1">
+        <v>45991</v>
+      </c>
+      <c r="B380" t="s">
+        <v>12</v>
+      </c>
+      <c r="C380"/>
+      <c r="D380"/>
+      <c r="E380"/>
+      <c r="F380"/>
+      <c r="G380"/>
+      <c r="H380"/>
+      <c r="I380">
+        <v>0.94353248999999995</v>
+      </c>
+      <c r="J380"/>
+      <c r="K380"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="1">
+        <v>45991</v>
+      </c>
+      <c r="B381" t="s">
+        <v>13</v>
+      </c>
+      <c r="C381"/>
+      <c r="D381"/>
+      <c r="E381"/>
+      <c r="F381"/>
+      <c r="G381"/>
+      <c r="H381"/>
+      <c r="I381">
+        <v>0.95824140499999999</v>
+      </c>
+      <c r="J381"/>
+      <c r="K381"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="1">
+        <v>46022</v>
+      </c>
+      <c r="B382" t="s">
+        <v>12</v>
+      </c>
+      <c r="C382"/>
+      <c r="D382"/>
+      <c r="E382"/>
+      <c r="F382"/>
+      <c r="G382"/>
+      <c r="H382"/>
+      <c r="I382">
+        <v>0.94334278599999999</v>
+      </c>
+      <c r="J382"/>
+      <c r="K382"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="1">
+        <v>46022</v>
+      </c>
+      <c r="B383" t="s">
+        <v>11</v>
+      </c>
+      <c r="C383"/>
+      <c r="D383"/>
+      <c r="E383"/>
+      <c r="F383"/>
+      <c r="G383"/>
+      <c r="H383"/>
+      <c r="I383">
+        <v>0.90236455599999998</v>
+      </c>
+      <c r="J383"/>
+      <c r="K383"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="1">
+        <v>46022</v>
+      </c>
+      <c r="B384" t="s">
+        <v>14</v>
+      </c>
+      <c r="C384"/>
+      <c r="D384"/>
+      <c r="E384"/>
+      <c r="F384"/>
+      <c r="G384"/>
+      <c r="H384"/>
+      <c r="I384">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="J384"/>
+      <c r="K384"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="1">
+        <v>46022</v>
+      </c>
+      <c r="B385" t="s">
+        <v>13</v>
+      </c>
+      <c r="C385"/>
+      <c r="D385"/>
+      <c r="E385"/>
+      <c r="F385"/>
+      <c r="G385"/>
+      <c r="H385"/>
+      <c r="I385">
+        <v>0.95439154400000004</v>
+      </c>
+      <c r="J385"/>
+      <c r="K385"/>
     </row>
   </sheetData>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
